--- a/news_data/2021_08.xlsx
+++ b/news_data/2021_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,21 +22,72 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>대구대 관광경영학과, 제주도서 현장실습 프로그램 진행</t>
+  </si>
+  <si>
+    <t>제주도, 코로나 위기 관광업체에 특별융자 지원…1천억원 규모</t>
+  </si>
+  <si>
+    <t>제주도 지난해 경제성장률 -7.5%…코로나로 관광산업 ‘직격탄’</t>
+  </si>
+  <si>
+    <t>제주도내 23개 관광개발 사업장 정기점검</t>
+  </si>
+  <si>
+    <t>제주도 1000억 특별융자 코로나 타격 관광업 지원</t>
+  </si>
+  <si>
+    <t>[특징주] 롯데관광개발, '제주도 호캉스' 효과로 3분기 호실적 전망에↑</t>
+  </si>
+  <si>
+    <t>4단계 오늘부터 본격화, 제주도 '관광시계' 멈추나</t>
+  </si>
+  <si>
+    <t>내달 제주도 가는 '관광비행' 뜬다…면세·국내여행 가능</t>
+  </si>
+  <si>
+    <t>관광진흥기금 정부 출연 불투명 제주도 "내년 예산 편성 어쩌나"</t>
+  </si>
+  <si>
+    <t>[특징주]롯데관광개발, 제주도 '롯데드림타워' 기대감 유지… '강세'</t>
+  </si>
+  <si>
+    <t>김돈곤 청양군수, 칠갑호 관광개발 벤치마킹 위해 제주도 방문</t>
+  </si>
+  <si>
+    <t>[STOCK] 롯데관광개발, 제주도 호캉스 지속… "신설 호텔 효과 UP"</t>
+  </si>
+  <si>
+    <t>첫 2000명대 확진자...제주도로 떠나는 관광객들</t>
+  </si>
+  <si>
+    <t>관광공사, ‘집콕 한국 나들이 이벤트’… 한식진흥원·대구·제주도 등 참여</t>
+  </si>
+  <si>
+    <t>제주도가 인정한 친환경 '녹색관광지' 11곳은 어디?</t>
+  </si>
+  <si>
+    <t>제주도, 드론 활용 관광지 '무장애 데이터 구축' 추진</t>
+  </si>
+  <si>
+    <t>"반갑지만, 걱정"…관광객 하루 4만 명 넘긴 제주도의 고민</t>
+  </si>
+  <si>
     <t>제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유</t>
   </si>
   <si>
     <t>한라산1950, 24회 제주도 관광기념품 공모전 금상 수상</t>
   </si>
   <si>
+    <t>제주도, 대한민국 '생태관광 중심' 도약 본격화</t>
+  </si>
+  <si>
     <t>한라벗 '한라산1950', 24회 제주도 관광기념품 공모전 금상 수상</t>
   </si>
   <si>
     <t>김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹</t>
   </si>
   <si>
-    <t>제주도, 대한민국 '생태관광 중심' 도약 본격화</t>
-  </si>
-  <si>
     <t>'5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광...</t>
   </si>
   <si>
@@ -52,28 +103,76 @@
     <t>한국관광공사, 외국인 대상 ‘집콕 한국 나들이 이벤트’ … 한식진흥원, 대구...</t>
   </si>
   <si>
-    <t>제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 &lt; 생활/문화 &lt; 뉴스 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 생활/문화 제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 기자명 오형석 기자 입력 2021.08.12 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국내·외 크루즈 관계자 20개 국·1,600여 명 온·오프라인 참여 [시사매거진/제주] 제주특별자치도는 오는 26일부터 28일까지 제주신화월드 랜딩컨벤션센터에서 ‘제8회 제주국제크루즈포럼’을 온·오프라인으로 병행해 추진한다고 밝혔다. 해양수산부와 제주도가 주최하고 제주관광공사가 주관하는 이번 포럼은 ‘포스트 코로나, 아시아 크루즈산업의 대전환’이라는 대주제로 진행된다. 포럼에는 국내·외 크루즈 관계자 약 20개국 1,600여 명이 온·오프라인으로 참가해 포스트 코로나 시대에 걸맞은 크루즈산업 발전 방안을 논의한다. 이번 포럼에서는 코로나19로 위기에 놓인 세계 크루즈산업의 회복과 지속 가능성, 포스트 코로나 시대 크루즈와 지역발전, 지속가능한 한국 크루즈산업 재도약 방안 등 크루즈관광 산업의 트렌드 변화를 모색한다. 26일 오전 10시 개막식을 시작으로 2개의 세션에서 ‘포스트 코로나 아시아 크루즈관광 변화와 트렌드 및 지역발전’에 대한 발표와 토론이 진행된다. 27일에는 2개의 세션에서 새로운 트렌드인 ‘친환경’과 ‘지속가능성’에 대해 고민하고, ‘한국 크루즈산업 재도약 방안’에 대해 심도 있게 다룰 예정이다. 28일에는 크루즈 관광객이 제주 기항 시 제주의 다채로운 매력을 충분하게 느낄 수 있는 포스트 투어가 예정되어 있다. 이외에 참가자를 대상으로 설문조사를 진행하고, 만족도 높은 관광지는 신규 제주 크루즈기항 관광프로그램으로 구성하는 등 마케팅 방안도 마련할 방침이다. 온라인 시청은 유튜브(주소 추후 공개)와 제주국제크루즈포럼 홈페이지를 통해 가능하다. 기타 자세한 사항은 제주국제크루즈포럼 홈페이지를 통해 확인 가능하다. 양홍식 도 해양수산국장은 “이번 포럼을 통해 포스트 코로나 시대 크루즈산업의 나아갈 방향이 제시되길 기대한다”면서 “제주 중심의 아시아 크루즈 네트워크가 지속적으로 유지돼 제주 크루즈산업 발전의 디딤돌이 되길 바란다”고 말했다. 한편, 제주국제크루즈포럼은 동북아시아를 중심으로 세계 크루즈산업의 육성 방안 모색을 위해 2013년 창설된 후 매년 제주에서 개최되고 있는데 지난해에는 코로나19로 취소됐다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>한라산1950, 24회 제주도 관광기념품 공모전 금상 수상 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #전기요금 인상 #尹 지지율 24% #10월 금통위 결정은 #바닥 안보이는 증시 #환율 1500원 뚫리나 #신당역 살인범 전주환 #실외 마스크 전면 해제 #돈스파이크 마약 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회이슈 urlhttps://www.sedaily.com/NewsView/22Q1N9KHZI 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회이슈 한라산1950, 24회 제주도 관광기념품 공모전 금상 수상 입력2021-08-03 10:11:32 수정 2021.08.03 10:11:32 김동호 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 한라산1950, 24회 제주도 관광기념품 공모전 금상 수상한라벗의 한라산1950이 제주도와 제주도관광협회에서 주최한 24회 제주도 관광기념품 공모전에서 금상을 수상했다. viewer 사진: 제주도 관광기념품 공모전에서 금상을 수상한 한라산1950 코콜릿 / 사진제공: ㈜한라벗제주도와 제주도관광협회(회장 부동석)는 제24회 제주도 관광기념품 공모전에서 한라벗(대표: 이지현)이 출품한 ‘한라산1950’이 금상을 수상했다고 밝혔다. 이번 공모전의 대상 수상작은 없다. 당선작은 금상 2점, 은상 3점, 동상 4점, 장려상 3점, 입선 5점이다. 대상이 없기 때문에 금상이 사실상 1등 수상작이다. 총 155개 작품이 접수된 가운데 두 차례에 걸쳐 상품성·디자인·창의성·실용성을 종합적으로 평가했다. '한라산1950'은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 백년초, 여름에는 말차, 가을에는 우도땅콩, 겨울에는 감귤로 한라산의 4계절을 표현해 심사위원들의 호평을 받았다.한라산1950은 식용 색소나 화학제품을 전혀 넣지 않고 순수 분말과 에콰도르 카카오 버터만을 사용하여 제품 본연의 맛을 낸 한라벗의 하이엔드급 초콜릿 브랜드다. 한라산1950에 사용하는 화이트 초콜릿은 에콰도르 현지에서 수입된 고급 제품이다. 화이트 초콜릿 재료로 쓰이는 우유는 에콰도르 키토(quito)근처에 있는 카얌베 화산의 작은 언덕에서 소규모 낙농공동체에 의해 생산된 것으로 달고 부드러운 식감을 가지고 있다. 한라벗 이지현 대표는 “기존의 초콜릿들은 고가의 카카오버터를 사용할 수 없어 이를 대체할 식물성 유지가 들어간다 팜유 등의 식물성 유지가 카카오버터대신에 들어간 경우 엄밀히 말하면 초콜릿이 아닌 초콜릿 가공품이다”라며 ”한라산1950은 제주를 자연환경을 모티브로 한 이야깃거리와 그에 걸맞은 맛을 갖췄다고 생각한다”고 말했다. ㈜한라벗은 1950년 제주도에서 창업을 한 특산품 제조 업체로 제주의 아름다운 자연 환경을 담은 초콜릿, 빵 등의 특산품을 개발하여 판매하고 있다. 대표 상품으로는 호두와 현미로 크런키한 식감을 살린 현무암 초콜릿, 건초과일과 건과류를 재료로 먹기 좋은 크기로 만든 큐브 초콜릿 등이 있다. 한라산1950은 제주공항내 판매점, 아르떼뮤지엄 기념품 판매소, 진에어 기내판매점, 씨에스호텔, 홈페이지 등을 통해 구매할 수 있다. &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 김동호 기자 디지털미디어센터 dongho@sedaily.com 카카오스타일, S/4HANA로 Digital Transformation 가속화한다 1,458세대 대단지 ‘동대구역 센텀 화성파크드림’ 선착순 분양 기자채널로 이동 오늘의 핫토픽 # 전기요금 인상 # 尹 지지율 24% # 10월 금통위 결정은 # 바닥 안보이는 증시 # 환율 1500원 뚫리나 오늘의 이슈 #마약민국 정신 올리패스 대표 "비마약성 진통제 성공땐 내년 적자구조 탈출 가능" #尹, 비속어 논란 野 "박진 장관 퇴장하라"…외교부 국감 40여분 만에 정회 #깡통전세 주의보 신혼부부 ‘디딤돌’ 전세대출 한도 3억 →4억으로 상향조정 #혼돈의 국민의힘 [시그널] 라이온하트 게임 하나로 4.5조?…몸값 고평가 논란 #5년간 '270만 가구' 공급 수도권 분양전환 공공임대 임대료, 시세 절반…"공급 재개해야" 이시간 주요 뉴스 영상 뉴스 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 北핵무기에 버금가는 위력…한국형 '괴물미사일' 공개됐다 쭉 당기자 펼쳐진 대형 화면…삼성 "폴더블은 끝났다" 러시아판 오징어게임?…조롱거리된 '러 징집병 숙소' 인기 포토 레드카펫 선 작은 아씨 걸그룹 센터 정의를 위해 인자한 틸다 겨울이 왔어요~ 8년만이에요 '꼭 돌아와' 불운을 막아라 오늘의 연재 인더뷰 중고장터서 운동화 세척 전문가 채용한 이유는?[인더뷰] 뒷북비즈 “취업시 100만원 드려요"…조선소, 인력난에 골머리 [뒷북비즈] 무언설태 與野, ‘농심 잡기’ 경쟁…나라곳간은 누가 지키나요 청론직설 경쟁국들 반도체 기술패권에 사활…K칩스법 서둘러 통과시켜야 서경 디지털 67개의 포토 정의를 위해 6개의 포토 인자한 틸다 27개의 포토 8년만이에요 69개의 포토 '꼭 돌아와' EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
-  </si>
-  <si>
-    <t>김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 &lt; 라이프 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 11:15 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 기자명 정기환 기자 입력 2021.08.04 14:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 [디스커버리뉴스=정기환 기자] 김돈곤 청양군수가 대치면 광대리 칠갑호 지구를 명품관광지로 바꿔나가기 위해 제주도 사례를 참고하고 있다. 김 군수는 3일부터 5일까지 새 랜드마크 역할을 할 칠갑타워 건축을 앞두고 특색 있는 구성을 위해 휴식과 차 문화를 즐길 수 있는 오설록 티 뮤지엄, 미디어아트 전시시설 아르떼 뮤지엄, 무민랜드, 더 플래닛 등을 방문해 각 시설이 지닌 장점과 강점을 체크하고 있다. 또 칠갑호 수상관광사업에 접목할 스누피 가든, 불빛정원 테마파크, 그리스 신화 뮤지엄, 라프 짚라인 등을 찾아 가족 단위 관광객들의 선호도 프로그램을 파악하고 있다. 군은 칠갑호 주변에 총사업비 340억원을 투자해 칠갑타워 스카이워크 관광거점 조성사업 수상관광사업을 추진할 계획이라고 전했다. 김돈곤 군수는 “현재 코로나19 상황으로 다른 지역 방문을 자제해야 할 상황이기는 하지만 칠갑호 관광개발사업을 경쟁력 있게 추진하기 위해 부득이 우수사례를 참고하게 됐다”며 “차별화된 칠갑타워 전시 프로그램으로 관광객을 맞을 수 있도록 최선을 다하고 있다”고 밝혔다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]모바일어플라이언스 주가, 정부 자율주행 혁신 로드맵 발표 [급등주]아바텍 주가 15% 상승, 신규사업 MLCC 기대감 [급등주]WI 주가 상승세, 유상증자 최종발행가액 확정 영향 여전하나 [급등주]에이프로젠 H&amp;G 주가 13% 강세 배경은? [급등주]지니틱스 주가 상승세, 에이비프로바이오 피인수 영향 계속? [급등주] 율촌화학 상승, 美 얼티엄셀즈와 공급계약 체결 [급등주]네이처셀 주가, 품목 허가 보류·공매도 보고 의무 강화 속 강세 [급등주]유니셈 주가, 플라즈마 스크러버 통한 매출 성장에 강세 [급등주] 삼성출판사 상승, 카카오모빌리티-더핑크퐁컴퍼니 MOU 체결 [급등주]가온칩스 주가 18% 상승, 상성전자 ARM 인수·합병 기대감 2022-10-04 11:16 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 기자명 문서현 기자 입력 2021.08.01 18:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8월 17∼9월 17일 프로그램·숙박시설 등 시범인증 대상 모집 (제주=국제뉴스) 문서현 기자 = 생태관광은 기억 속에서 떠올리던 시골의 풍경을 찾아가 휴식을 취하고 동심이 되어 놀아 보는 것 같은 만족을 주는 관광의 한 방법이다. 제주도가 이 같은 제주생태관광인증제 시행을 앞두고 시범 인증대상을 모집한다, 1일 제주도에 따르면 오는 17일부터 9월 17일까지 생태관광지역, 생태관광 프로그램, 생태관광 관련 숙박시설 등 3개분야에 시범인증 대상을 모집한다고 밝혔다 생태관광지역은 △자연관광 또는 생태관광 대상 장소 및 장소를 대표하는 특정 시설물 △농어촌마을이나 관광목적의 자연지역 △방문자센터나 탐조시설 △탐방로 △체험센터 등이다. 생태관광 프로그램은 여행업으로 등록된 기업이나 단체에서 판매하는 여행상품이나 마을 등의 단체(혹은 개인)가 개발해 운영하는 관광상품 등이다. 생태관광 관련 숙박시설은 50객실 이하의 규모로 친환경적 숙박을 위해 고안된 시설·호텔·콘도미니엄·펜션·민박·캠핑장 등이다. 심사는 제주생태관광지원센터(대표 고제량)의 심사계획에 따라 인증심사위원회를 구성해 평가하게 된다. 도는 선정된 생태관광지역과 프로그램, 숙박시설에는 인증서 전달 및 제주도 생태관광 지도 제작과 홍보 등을 지원할 계획이다. 자세한 사항은 제주생태관광지원센터(☎064-782-3253)나 (사)제주생태관광협회 홈페이지(www.jejuecotour.com)를 통해 확인 하면 된다. 민영뉴스통신사 국제뉴스/start-to@hanmail.net 키워드 #제주생태관광지원센터 #제주도 #제주생태인증 #생태관광 #숙박시설 #친환경 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 3년 만에 정상 개최 부산국제영화제 5일 개막 중국·홍콩 증시, 국경절 연휴로 휴장 최신뉴스 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 3년 만에 정상 개최 부산국제영화제 5일 개막 포토뉴스 진천교육청, 2022년 3분기 BEST-친절직원 박미희-김민경 주무관 선정 윤재갑 의원, "국민 세금 줄줄 샌다!" 르세라핌 홍은채 불참 '더팩트 뮤직 어워즈' 4명 참여 하영제 의원 "금융 사기 이용 전화번호 관리·감독 강화해야" 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 6 안양 호계동 아파트 공사장서 불…인명피해 없어 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>'5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 '5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 연예 '5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 기사입력 2021-08-03 13:10:43 [스포츠조선닷컴 김수현기자] 배우 이다해가 제주도로 여행을 떠났다. 이다해는 3일 인스타그램에 "타잔으로 컨셉 잡은 듯"이라는 글과 함께 여러 장의 사진을 게재했다. 사진에는 제주도의 한 카페에서 더운 날씨지만 여유를 즐기는 이다해의 모습이 담겼다. 이다해는 긴 생머리를 휘날리며 호피 패턴 원피스로 섹시한 분위기를 더했다. 한편 이다해는 지난 2016년부터 가수 세븐과 공개 연애 중이다.shyun@sportschosun.com 남편과 장모의 수상한 스킨십, 불륜 맞았네..이상민 “저 정도면 악마” 유흥업소 직원된 걸그룹 멤버, 출근 인증샷..옷 많이 야하네 비비 “워터밤 공연 중 옷 벗다가 비키니 풀려”..아찔 사고 고백 최강희, 여전한 '동안' 미모. “술·담배 끊고 다 해결된 줄 알았는데 다시 넘어졌다” 고백 톱스타 폭로 “감금 당해 알몸 다 보여줬다” 연예 많이본뉴스 1.조은숙 “며칠간 혼수상태” 고백 그 후..건강 찾고 마동석됐네 2.양미라, 갑자기 찾아온 겹경사 "신생아 딸, '90일의 기적' 찾아와" 3.우즈베키스탄 아내 “한국 남편과 이틀 만에 결혼 후..욕설과 손가락 욕 남발에 고통” (오은영리포트) 4.산다라박, 초사이언 베지터 머리 재소환…파리 시민들도 '화들짝' 5.트와이스 모모, 몸매 이정도였나? '뱃살조심 룩'에도 선명한 11자 복근 스포츠 많이본뉴스 1.7순위가 6순위보다 3000만원 더 받았다. LG의 김범석, 경남고 친구 4순위 신영우와 같은 2억5000만원에 계약[공식발표] 2.“야 멋있어 장군. 형이 1월에 밥 살게” 김광현도 진심으로 기뻐한 장민재의 성장[대전영상] 3.'독수리 킬러' 또 무너졌다, ⅔이닝 49구 5실점 '충격 강판'[대전 Live] 4.'내가 너무 늦게 불렀나?' 대체선발 이상의 활약에 김영준을 격하게 영접한 꾀돌이 감독 [SC스토리] 5.간절한 이강인 '헤드 퍼스트', '레전드' 사비도 극찬 "재능 갖고 있다" 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 드론 활용한 이동약자 관광지 무장애 데이터 구축 시동 전체기사 | SECURITY | IT | SAFETY | | 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 [2022년 상반기 보안업계 성적표-... [ISEC 2022] 융합보안, 한화... [2022년 국정감사 미리보기-6] ... [2022년 국정감사 미리보기-5] ... 로그인 | 회원가입 | 기사제보 | 스크랩 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 전체기사 SECURITY IT SAFETY Security World #전체기사 #시큐리티월드 #사건사고 #프리미엄 리포트 #NFT #ISEC 2022 뉴스레터 신청 시큐리티 콘텐츠 Home &gt; 전체기사 제주도, 드론 활용한 이동약자 관광지 무장애 데이터 구축 시동 |  입력 : 2021-08-10 10:43 #4차 산업혁명 #ICT #드론 #제주도 8월 중 데이터 구축 사업 위한 사전 규격·공고…11월 사업 완료[보안뉴스 박미영 기자] 제주도는 드론을 활용한 모바일 무장애여행 관광지 길안내 서비스인 ‘관광지 무장애 데이터 구축 사업’을 추진하기 위해 8월 중 사전 규격 및 사업 공고를 실시할 계획이라고 밝혔다.이번 사업은 드론 라이다(LIDAR)를 활용해 모바일 무장애여행 관광지 길안내 서비스 기반 자료를 구축하기 위해 추진되고 있다. 제주도는 보건복지 분야에 최첨단 과학기술을 활용한 무장애 데이터 구축을 통해 장애인·노인 등 이동약자의 복지 사각지대를 해소할 계획이다.사업에는 지방비 9,800만원이 투입된다. 사업 공고 후 9월 사업자를 선정하고, 11월 말까지 제주돌문화공원 등 관광지 30개소를 대상으로 드론 라이다를 촬영해 데이터를 수집할 계획이다.이번 사업을 통해 이동약자들의 관광지 등 교통 접근성과 편의성을 개선하고, 이동권 보장을 위한 데이터 생산과 관리체계를 구축한다. 그동안 시설물에 대한 정보들이 대부분 텍스트 위주와 현장과 일치하지 않은 부정확한 데이터가 제공되면서 이동 약자들이 많은 불편을 겪어 왔다. 이를 개선하기 위해 드론 라이다를 활용해 측량데이터와 사진 이미지를 융합해 점용물 확인, 인도폭 계산, 계단 등 필요한 데이터를 추출한다. 이와 함께 휠체어 사용자를 위해 경사로 입구, 휠체어 리프트 이동 편의시설 위치정보와 급경사 등이 포함한 위험지역 등의 데이터도 포함된다.윤형석 도 미래전략국장은 “누구나 보편적으로 일상에서 안전하고 편리하게 활용할 수 있도록 데이터 연계와 융합 기술을 더욱 발전시켜 나가겠다”고 밝혔다.[박미영 기자(mypark@boannews.com)]&lt;저작권자: 보안뉴스(www.boannews.com) 무단전재-재배포금지&gt; 박미영기자 기사보기 0 0 헤드라인 뉴스 [2022년 상반기 보안업계 성적표-1] 영상보안 부문 상장기업 7곳 매출 분석 [2022년 국정감사 미리보기-6] 조달청·경찰청·방사청·금융위의 보안·안전 이슈 점검 [ISEC 2022] 융합보안, 한화테크윈과 하이크비전의 키노트 강연 등 ‘풍성’ [2022 접근제어 리포트] 계정관리·통합접근제어 솔루션은 요즘 ‘대동단결(大同團結)’ [긴급] 개천절 D-day? 북한 해커의 대남 사이버공격 준비 정황 포착 TOP 뉴스무선 네트워킹 분야에서 떠오르는 새로운 개념 ‘...[2022년 국정감사 미리보기-5] 북한 사이버...온라인 맞춤형 광고, ‘구글’과 ‘메타’ 행위에...주민등록번호 변경, 내일부터 온라인 신청 가능[2022년 국정감사 미리보기-4] 중대재해처벌...[보.알.남] “빛나진 않지만 알아챌 수는 있다...[bnTV] 정부 10만명 보안인력 양성!! ‘...대한민국 디지털 전략 속 ‘사이버보안’ 정책 분... 로그인 후 댓글을 입력하세요. 가장 많이 본 기사 [주간] [2022 접근제어 리포트] 계정관리·통합접근제어 ... 올해 상반기 전 세계 디도스 공격 600만건 넘었다 [주말판] 트위터의 내부 고발자 사건, 보안 측면에... 대한민국 디지털 전략 속 ‘사이버보안’ 정책 분석해... 어떤 개발 팀이 번아웃도 적고 보안 사고도 적을까? [미래차 사이버보안-1] 자동차 해킹 사례와 미래차... [긴급] 개천절 D-day? 북한 해커의 대남 사이... [bnTV] 정부 10만명 보안인력 양성!! ‘화이... 오스트레일리아 대표 통신사 옵터스, 980만명 이용... [2022년 국정감사 미리보기-4] 중대재해처벌법과... 주요 기업별 기사 “ SNS에서도 보안뉴스를 받아보세요!! ” 취약점 경고 및 보안 업데이트 [2022-09-30] 새 MS 익스체인지 제로데이,... [2022-09-29] 매그니베르 랜섬웨어, 백신 회... [2022-09-29] 모질라 파이어폭스·선더버드, ... [2022-09-28] 북한의 라자루스, 구직자들 노... [2022-09-28] 오스트레일리아 대표 통신사 옵... 보안ㆍIT산업 동향 국회ICT융합포럼, ‘사이버보안 현황과 전략... 소방청, ‘소방안전 표어·포스터·사진 공모전... 공항 이용할 때, 바이오정보 활용해 스마트하... 주민등록번호 변경, 내일부터 온라인 신청 가... 서부발전, 디지털 이노베이터 육성 ‘가속화’ 조회순 추천순 스크랩순 1 [긴급] 개천절 D-day? 북한 해커의 대... 2 [2022년 국정감사 미리보기-4] 중대재해... 3 [보.알.남] “빛나진 않지만 알아챌 수는 ... 4 [2022년 국정감사 미리보기-5] 북한 사... 5 [2022년 국정감사 미리보기-6] 조달청·... 1 [긴급] 개천절 D-day? 북한 해커의 대... 2 [2022년 국정감사 미리보기-5] 북한 사... 3 [2022 접근제어 리포트] 계정관리·통합접... 4 [카드뉴스] 나만의 12개 키워드, 니모닉 5 2022년 10월, 물리·정보 보안업계 인력... 1 최근 랜섬웨어 해커조직들 사이에서 나타나는 ... 2 정체를 파악하기 힘든 새로운 공격 단체 ‘메... 3 보안 분야 7大 이슈 분석.... KISA-... 4 무선 네트워킹 분야에서 떠오르는 새로운 개념... 5 [2022 접근제어 리포트] 계정관리·통합접... 설문조사 산업 전 분야의 지능화·융합화·스마트화 추세에 따라 스마트시티와 스마트공장, 스마트의료, 스마트상점 등 각 분야에서도 정보보안과 물리보안이 함께 접목되는 융합보안이 이슈가 되고 있습니다. 올해 융합보안이 가장 활발하게 적용될 분야는 어디라고 보시나요? 스마트시티 보안 스마트공장 보안(OT 보안) 스마트의료 보안 스마트상점 보안 기타(댓글로) [2022년 상반기 보안업계 성적표-1] 영상보안 부문... [ISEC 2022] 융합보안, 한화테크윈과 하이크비전... [2022년 국정감사 미리보기-6] 조달청·경찰청·방사... [2022년 국정감사 미리보기-5] 북한 사이버공격 대... [긴급] 개천절 D-day? 북한 해커의 대남 사이버공... [2022년 국정감사 미리보기-4] 중대재해처벌법과 스... [보.알.남] “빛나진 않지만 알아챌 수는 있다고?” ... [주말판] 트위터의 내부 고발자 사건, 보안 측면에서 ... 회사소개| 광고안내| 이용약관| 개인정보 처리방침| 청소년 보호정책| 고객센터| 제휴안내| 관련서적| RSS 서비스| 발행인: 최정식  |  편집인: 최소영  |  청소년보호책임자: 최소영 등록번호 : 서울 아00181 | 등록연월일 : 2006년 3월 17일 | 상호 : (주)더비엔 | 사업자등록번호 : 407-86-00506 | 대표 : 최정식 주소 : 서울시 마포구 마포대로 25 (마포동, 신한디엠빌딩 13층) (우. 04167) | 전화 : 02-719-6933 | 팩스 : 02-715-8245 | E-mail : helpdesk@boannews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 권 준(editor@boannews.com) Copyright ⓒ thebn Co., Ltd. All rights reserved.</t>
-  </si>
-  <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:52 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N1 이전 다음 제주도 생태관광 시범인증 대상 모집…지역·프로그램·숙박 등 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정치 제주도 생태관광 시범인증 대상 모집…지역·프로그램·숙박 등 이정민 기자 승인 2021.08.01 09:44 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 도청 청사. [제주특별자치도] [미디어제주 이정민 기자] 제주특별자치도는 제주생태관광인증제 시행에 앞서 오는 17일부터 다음달 17일까지 시범인증 대상을 모집한다고 1일 밝혔다. 시범인증 대상은 생태관광지역, 생태관광 프로그램, 생태관광 관련 숙박시설 등 3개 분야다. 생태관광지역은 ▲자연관광 또는 생태관광 대상 장소 및 장소를 대표하는 특정 시설물 ▲농어촌마을이나 관광목적의 자연지역 ▲방문자센터나 탐조시설 ▲탐방로 ▲체험센터 등이다. 프로그램은 여행업으로 등록된 기업이나 단체에서 판매하는 여행상품 혹은 마을 등의 단체가 개발해 운영하는 관광상품 등이며, 숙박시설은 50객실 이하의 규모로 친환경적 숙박을 위해 고안된 시설·호텔·콘도미니엄·펜션·민박·캠핑장 등이다. 제주도는 인증심사위원회 평가를 통해 선정된데 대해 생태관광 지도 제작 및 홍보 등을 지원할 계획이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 이정민 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ 7양덕순 "제주연구원, 실용적인 정책 연구 앞장서야" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>제주도, 도내 관광지에 '녹색제품' 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 도내 관광지에 '녹색제품' 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 도내 관광지에 '녹색제품' 지원 현대성 기자 승인 2021.08.16 14:38 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주녹색구매지원센터(이하 센터)는 '녹색관광지 만들기' 사업에 참여하고 있는 도내 사설관광지 11곳에 녹색제품을 지원했다고 16일 밝혔다. 녹색제품이란 에너지 및 자원의 투입과 온실가스 및 오염 물질의 발생을 최소화하는 제품이다. 제주도와 센터는 도내 생산 녹색제품 보급을 촉진하고, 사설관광지 내 물품의 녹색제품 전환을 유도하기 위해 제품을 지원했다. 제주도는 2016년부터 도내 관광업계와 협력해 '녹색관광지 만들기' 사업을 추진하고 있다. 문경삼 제주도 환경보전국장은 "도민뿐만 아니라 관광객의 녹색관광지 혜택 범위를 넓혀 친환경 소비 확산을 이끌 수 있도록 노력하겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>대구대 관광경영학과, 제주도서 현장실습 프로그램 진행 - 뉴스웨이 기업·경영 금융·증권 정치·경제 부동산 오피니언 ESG경영 기획·이슈 리포트 스토리 검색어 X 검색 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 bar_progress 대구대 관광경영학과, 제주도서 현장실습 프로그램 진행 검색 닫기 X 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 전문가 칼럼 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 대구대 관광경영학과, 제주도서 현장실습 프로그램 진행 등록 2021.08.30 16:55 사진제공=대구대 대구대(총장 김상호) 관광경영학과가 최근 재학생으로 구성된 단기 하계실습생을 다양한 기업현장으로 파견해 현장 실습기회를 확대하고 있다. 지난 24일에는 제주 서귀포 칼호텔에서 두 달간의 현장실습 프로그램에 참여하고 있는 3명의 학생들을 학과 차원에서 방문해 간담회를 개최하면서 자유롭게 의견을 공유했으며, 향후 피드백된 내용을 반영해 취업지도에도 활용할 계획이다. 특히, 현장실습생들은 이전의 단체관광객 중심에서 벗어나 코로나 시대에 맞는 소수 고객 맞춤형 서비스개발 교육과 함께 종업원 수준의 급여 대우를 받기도 했다. 이번 프로그램에 참가한 이수연(관광경영학과 1) 학생은 “호텔 현장에서 실제로 사용하는 친절 화법, 고객대응법 등을 배웠다”며 “앞으로도 교내 수업과 함께 다양한 관광서비스 매너를 익히기 위해 노력하겠다”고 말했다. 이응진 관광경영학과 교수는 “대학생들은 강의실에서의 이론적 서비스 교육과 함께 현장에서의 실습활동도 중요하다”며 “빠른 사회 실무 경험을 통한 자립형 인재양성을 위해 최선을 다하겠다”고 말했다. 한편, 대구대 관광경영학과는 재학생의 국내 현장실습 프로그램을 통해 다양한 기업근무 경험을 제공함으로써 실무형 인력양성을 위한 실천적 교육을 하고 있다. 홍성철 기자 newswaydg@naver.com 관련태그 #대구 #경북 #홍성철 &lt;저작권자 © 온라인 경제미디어 뉴스웨이 · 무단 전재 및 재배포 금지&gt; 주요뉴스 퇴출 심판대 서는 신라젠···"개선과제 모두 완료했다" 김은지 대표 "전자담배 '글로' 2배 성장"···BAT로스만스, ESG·위해저감 강조 강달러 독주에···日로 발길 돌린 해외직구족 삼성·LGD, 3분기 애플로 희비 갈렸다 BAT로스만스 "'글로' 완전 전환 시 연초 대비 위해저감 효과" 지배구조 더보기 동원산업·동원엔터프라이즈, 오늘 주총서 합병안 가결 ESG경영 더보기 추락하는 허연수號···GS리테일, '동반성장 최우수' 타이틀도 잃었다 실종아동찾기 뉴스웨이가 함께합니다. 이경미(여, 당시 만4세) 실종일자 : 1977/04/01 실종지역 : 부산광역시 연제구 카드뉴스+ 더보기 '과다 흡연, 연골 파괴, 여장까지···' 군대 안 가려고 이런 짓을? 뉴스웨이TV 더보기 'BBC 尹 풍자 영상' 튼 김경협 "한국 칭찬으로 보이나?" 박진 "영국 공식 입장은 달라" 회사소개 개인정보처리방침 이메일무단수집거부 청소년보호정책 윤리강령 고충처리 인재채용 전체 서비스보기 기업·경영 산업 유통 자동차 IT 블록체인 제약·바이오 금융·증권 정책금융 은행 보험｜카드 증권 종목｜공시 투자전략 IB 정치·경제 정책 대통령실 국회 세종 공기업 부동산 정책 분양 건설 부테크 브랜드 뉴스 NW스토리 NW리포트 기획·이슈 ESG경영 카드뉴스+ 카드뉴스 5픽뉴스 뉴스 #더 오피니언 데스크 칼럼 기자수첩 전문가 칼럼 이슈플러스 뉴스웨이TV 포토뉴스 전체뉴스 (주)뉴스웨이 서울특별시 용산구 한강대로 308, 7층 (갈월동, 한국정보통신공사협회) 등록번호 : 서울, 아00528 등록일자 : 2008.03.10 발행일자 : 2008.03.10 제호 : 뉴스웨이 회장 : 김종현 발행인 · 편집인 : 강 혁 편집국장 : 황의신 청소년보호책임자 : 안 민 Tel : 02. 799. 9700 Fax : 02. 799. 9724 mail to webmaster@newsway.co.kr 뉴스웨이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다.Copyright © Newsway. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 코로나 위기 관광업체에 특별융자 지원…1천억원 규모 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 코로나 위기 관광업체에 특별융자 지원…1천억원 규모 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 코로나 위기 관광업체에 특별융자 지원…1천억원 규모 송고시간2021-08-23 09:54 요약 beta 닫기 제주도가 신종 코로나바이러스감염증(코로나19) 장기화로 어려움을 겪는 관광업체의 경영 안정화를 위해 1천억원 규모의 관광진흥기금 특별융자를 지원한다. 제주도는 23일 관광진흥기금 특별융자 지원 사항을 공고하고 다음 달 10일까지 신청받는다고 밝혔다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 (제주=연합뉴스) 고성식 기자 = 제주도가 신종 코로나바이러스감염증(코로나19) 장기화로 어려움을 겪는 관광업체의 경영 안정화를 위해 1천억원 규모의 관광진흥기금 특별융자를 지원한다. 제주도청 [제주도 제공. 재판매 및 DB 금지] 제주도는 23일 관광진흥기금 특별융자 지원 사항을 공고하고 다음 달 10일까지 신청받는다고 밝혔다. 특별융자 지원 내용을 보면 여행업, 관광편의 시설업, 유원시설업 등의 경영안정 자금 800억원, 관광시설 및 숙박업 등 개·보수 자금 200억원이다. 광고 도는 융자 추천액 대출 실행으로 발생한 이자 차액을 보전해 주는 방식으로 지원할 방침이다. 대출 금리의 경우 0.87％로 확정됐다. 융자 조건은 2년 거치 3년 균등 상환이다. 신청을 원하는 관광업체는 '기금융자자시스템 기업사용자'(http://210.103.63.210) 등에서 신청이 가능하다. 이번 지원에 대한 자세한 문의는 제주관광진흥기금 특별지원센터(☎ 064-740-6095∼7, 710-3344)로 하면 된다. 김승배 관광국장은 "이번 지원을 통해 업계의 고통을 조금이나마 덜어 줄 수 있기를 바란다"며 "조례 개정 등으로 담보 능력이 없는 영세 관광사업체도 특별보증을 받을 수 있도록 제도개선을 추진해 나가겠다"고 말했다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/08/23 09:54 송고 #융자 #지원 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 지난해 경제성장률 -7.5%…코로나로 관광산업 ‘직격탄’ : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주도 지난해 경제성장률 -7.5%…코로나로 관광산업 ‘직격탄’ 등록 :2021-08-26 13:49수정 :2021-08-27 02:32 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 관광산업 타격이 지역경제 전반에 영향 제주시 신제주 전경. 지난해 코로나19 확산으로 경제적 충격을 가장 심하게 받은 지역은 제주로 나타났다. 제주도의회가 26일 발표한 ‘코로나 발생이 제주경제와 세입에 미친 영향과 대응’ 현안보고서를 보면, 지난해 코로나19 사태로 제주지역 경제성장률은 -7.5%(추정)로 전국 광역자치단체 가운데 가장 부진한 성장률을 기록했다. 제주지역의 이런 부진은 지역 주요산업인 관광산업이 직접 피해를 본 데 따른 것이다. 제주와 외국을 잇는 직항로가 중단되는 등 외국인 관광시장이 무기한 휴장 상태에 들어갔고, 내국인 관광객도 줄면서 관광산업이 지역경제 전반에 영향을 줬기 때문이다. 관광업과 직접 관련이 있는 서비스생산 증가율은 -10.4%, 소매판매 증가율은 -26.9%를 기록했다. 지역경제의 침체는 지방재정에도 부정적 영향을 끼쳤다. 지방세 수입 증가율은 5.4%에 그쳐 전국 평균(15.8%)보다 10%포인트 넘게 낮았다. 보고서는 “제주의 국고보조금 증가율은 21.1%로 전국 평균(37.1%)에 견줘 크게 미치지 못했다. 이전재원(지방교부세+국고보조금) 증가율도 전국에서 가장 낮은 2.5%로 전국 평균(27.2%)에 크게 못미쳤다”고 밝혔다. 도의회는 지역경제 활성화를 위해 소상공인들의 피해회복 지원자금이 차질없이 배분되도록 행정지원을 강화할 필요성이 있다고 제언했다. 또 세입 안정화를 위해 △지방세 비과세 감면제도 정비와 축소 △지방세와 세외수입 징수율 제고 △리스차량 등록지 유치 확대 △제주계정 및 특별행정기관의 국비지원 확충 노력 등이 필요하다고 밝혔다. 좌남수 의장은 “소상공인 피해지원은 물론 교육, 사업화 지원 등으로 풀뿌리 산업이 재도약할 수 있도록 행정적 지원을 아끼지 말아야 한다. 집행부는 이전재원 확보를 위해 중앙부처와 지속해서 소통하고 설득하는 노력을 기울여 나가야 한다”고 말했다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도내 23개 관광개발 사업장 정기점검 &lt; 경제/관광 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도내 23개 관광개발 사업장 정기점검 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제/관광 제주도내 23개 관광개발 사업장 정기점검 기자명 강동우 기자 입력 2021.08.23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도, 23~9월30일 투자실적·고용실태 등 승인조건 이행여부 중점 확인 제주도는 23일부터 9월 30일까지 관광개발 사업장을 대상으로 사업 추진 실태에 대한 정기점검을 실시하고 있다. 제주도내 23개 관광개발사업장에 대한 투자실적과 고용실태 등 승인조건 이행여부를 확인하는 하반기 정기점검이 오는 9월말까지 실시되고 있다. 제주특별자치도는 23일부터 9월 30일까지 관광개발 사업장을 대상으로 사업 추진 실태에 대한 정기점검을 실시하고 있다고 밝혔다. 점검 대상은 완료·운영 중인 사업장 4개소, 일부 운영 중인 사업장 12개소, 공사 중인 사업장 7개소 등 23개소다. 제주도는 상·하반기에 걸쳐 연 2회 관광개발 사업장을 대상으로 정기점검을 실시하고 있다. 이번 하반기 점검에서는 관광개발 사업장의 투자실적, 도민 고용실태, 도내 건설업체 참여율 등 승인조건 이행여부를 중점 확인한다. 또한 ▲지역업체 생산 자재 사용 ▲지역 농·수·축산물 구매 ▲지역 인재육성 프로그램 운영 점검 ▲하반기 투자계획 및 인력채용계획 등도 확인할 계획이다. 이를 통해 관광개발 사업장이 지역주민의 소득과 지역발전에 기여할 수 있도록 유도할 방침이다. 이외에 코로나19 방역수칙 준수 여부 및 태풍 등 재난 취약시기 자연재해 예방 상황도 점검할 계획이다. 김승배 도 관광국장은 “관광개발 사업장에 대한 지속적인 점검을 통해 지역주민과 상생하고, 지역경제를 활성화할 수 있도록 관리 체계를 강화해 나가겠다”고 밝혔다. 강동우 기자 kdw2312@naver.com 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 1000억 특별융자 코로나 타격 관광업 지원-국민일보 시사 시사 &gt; 전체기사 제주도 1000억 특별융자 코로나 타격 관광업 지원 경영안정자금 800억 등 배정… 다음 달 10일까지 신청 접수 입력 : 2021-08-24 04:06 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 코로나19 장기화로 어려움을 겪고 있는 관광업체에 올해 하반기 1000억원 규모의 관광진흥기금 특별융자를 지원한다.도는 ‘2021년 하반기 제주관광진흥기금 특별융자지원 계획’을 제주도청 홈페이지에 공고하고 이달 23일부터 다음 달 10일까지 제주웰컴센터 특별지원센터를 통한 방문 및 온라인 접수를 받는다고 23일 밝혔다.도는 총 융자 규모 1000억원 가운데 여행업, 관광편의시설업, 유원시설업 등에 경영안정자금 800억원과 관광시설 및 숙박업 등에 개·보수 자금 200억원을 배정했다.지원은 융자 추천액 대출 실행에 따른 이자 차액을 보전해주는 방식으로 이뤄진다. 대출 금리는 기획재정부의 분기별 공공자금관리기금 융자사업 변동금리 등을 적용해 0.87%로 확정했다. 융자 조건은 2년 거치 3년 균등 상환이다.올해는 융자 추천 금액 선정 방식이 소폭 달라졌다. 도는 지난해까지 전년도 매출액 범위에서 지원 업체를 선정했으나 올해는 코로나19로 인한 매출 감소 상황 등을 고려해 최근 3년 중 사업자 측에 유리한 년도의 매출액 범위에서 심사를 받을 수 있도록 했다.도는 지난 상반기 383개 업체에 675억원 규모의 융자를 추천했다. 또 기존 대출 실행자 1194건 2412억원에 대해 1년 간 상환 유예를 결정했다.한편 코로나19가 1년 9개월 가까이 이어지면서 제주지역 관광업계가 큰 타격을 받고 있다.지난 4월 이후 내국인 관광객 규모는 예년 수준을 회복했지만 단체 관광객을 대상으로 하는 여행사, 전세버스 업계를 비롯해 면세점, 카지노 등 외국인 관광 시장은 여전히 어려움을 겪고 있다.특히 지난달 초 수도권과 제주도 등이 사회적 거리두기 4단계를 적용하면서 지난 봄 이후 반짝했던 제주 관광은 다시 비수기로 접어들었다. 광복절 이전 하루 평균 3만5000명 선을 오가던 입도 관광객은 최근 2만5000명 대까지 떨어졌다. 카지노 납부금을 주요 재원으로 조성되는 제주관광진흥기금도 바닥을 드러내고 있다.제주=문정임 기자 moon1125@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 ‘naver.pay’ 주소, 속았다…8천만원 사기친 피싱사이트 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 스페인에선 주전… 94분 뛴 이강인, 팀내 최고평점 부하 직원 엉덩이 때렸는데 정직 1개월…‘솜방망이’ 논란 김영환 지사 “현금복지 후퇴 없다…양해구한다” 한화 창립 70주년, 김승연 회장 “어제를 경계하고 늘 새로워지자” 3년만의 제약 바이오 채용박람회 “프로농구 우승 후보는?” 감독에게 물었더니…SK·KT 막상막하 과학·미래 가치 담았다…UCLG 총회 ‘대전트랙’ 시작 정진석 ‘식민사관’ 발언 논란…유승민 “천박한 발언, 사퇴해야” 경찰 ‘제2의 n번방’ 18명 검거, 3명 구속 잇따르는 경기침체 경고…JP모건 CEO “미·세계 경제에 침체 올 것” 이재호 연수구청장, MZ세대와 소통…역사·문화 공유 최인호 “코레일·SR, 간부급 경조사비 5년간 14억 지급” 대구서 전국동시조합장선거 관련 첫 고발 전주, 후백제∼조선 유산 묶는 ‘왕의 궁원’ 프로젝트 추진 JP모건 CEO “S&amp;P 20% 더 빠질 수 있다” [3분 미국주식]</t>
+  </si>
+  <si>
+    <t>[특징주] 롯데관광개발, '제주도 호캉스' 효과로 3분기 호실적 전망에↑ - 머니S 본문영역 바로가기 2022.10.11 | 14:55:02 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소 더보기 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소2분전 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다5분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순7분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"11분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축13분전 [머니S포토] 질의 답변하는 이종국 SR대표이사18분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"19분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감20분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'22분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장24분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 [특징주] 롯데관광개발, '제주도 호캉스' 효과로 3분기 호실적 전망에↑ 머니S 안서진 기자|조회수 : 3,745|입력 : 2021.08.24 09:51 기사공유 댓글남기기 폰트크게 폰트작게 프린트 사진=롯데관광개발롯데관광개발 주가가 강세다.24일 오전 9시27분 롯데관광개발은 전 거래일 대비 900원(5.11%) 오른 1만8500원에 거래되고 있다.롯데관광개발은 올 2분기 연결기준 매출액 245억원, 영업손실은 296억원을 기록했다. 이남수 키움증권 연구원은 "객실 매출 대비 F&amp;B 전환율은 51.2%로 1분기 대비 다소 낮아진 모습을 보였지만 여름 성수기를 거치면서 회복세를 보일 것으로 기대한다"며 "효율적인 고정비용 통제가 되고 있는 만큼 향후 매출 성장에 따라 카지노 영업관련 변동 비용만이 발생하며 손실폭을 줄여나갈 것으로 전망한다"고 말했다.이 연구원은 "해외여행이 어려워지면서 제주도 호캉스가 계속돼 3분기에 전체적으로 객실 점유율이 높아지고 있다"며 "다만 제주 역시 사회적 거리두기 단계가 4단계로 격상되면서 단기적으로 여행 수요가 부진할 수 있겠지만 호텔과 항공이 조합되는 여행 특성과 늦은 호캉스가 이어지면서 실적이 뒤늦게 나타날 것으로 기대된다"고 덧붙였다. 안서진 seojin0721@mt.co.kr 머니S 증권팀 안서진 기자입니다. 있는 그대로 전하겠습니다. 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2186.72 46.1214:37 10/11 코스닥 : 669.44 29.0514:37 10/11 원달러 : 1435.00 22.614:37 10/11 두바이유 : 96.51 2.1514:37 10/11 금 : 1675.20 34.114:37 10/11 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 CEO [CEO 포커스] 송재준 컴투스 대표, 콘텐츠 확장 박차… '서머너즈 워', 누적 매출 3조 머니S리포트 한화, 대우조선 이어 KAI도 품을까 재테크 [법률S토리] 과세특례 활용으로 절세해 볼까 머니S 뉴스스탠드를 구독하세요 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>4단계 오늘부터 본격화, 제주도 '관광시계' 멈추나 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 4단계 오늘부터 본격화, 제주도 '관광시계' 멈추나 등록 2021.08.18 11:46:34 작게 크게 기사내용 요약 관광객 5개월만에 2만명 대로 ‘뚝’ 떨어져 관광업계 비상…렌터카 가동률 80%→40% "렌터카·호텔 3인 이상 불가능…사실상 봉쇄" [제주=뉴시스] 우장호 기자 = 제주 지역 사회적 거리두기가 4단계로 격상된 18일 오전 제주시 한림읍 협재해수욕장에 해수욕장 폐장을 안내하는 현수막이 설치돼 있다. 4단계 조치로 제주 도내 12개 지정 해수욕장은 오는 29일까지 모두 폐장한다. 2021.08.18. woo1223@newsis.com[제주=뉴시스] 양영전 기자 = 하루 코로나19 신규 확진자 수가 43일째 네 자릿수를 기록하고, 제주에서 사회적 거리두기 단계가 최고 단계인 4단계로 격상되면서 제주 입도객 수가 지난 3월 이후 5개월 만에 2만명대로 떨어졌다. 18일 제주도관광협회에 따르면, 전날인 17일 제주를 찾은 관광객 수는 2만8266명으로 집계됐다. 16일(3만3202명)과 비교하면 하루 만에 5000명이 줄었다. 코로나19 여파로 관광객 수가 2만명 대로 떨어진 건 지난 3월 이후 5개월 만이다. 제주에서 이날부터 사회적 거리두기가 4단계로 격상된 영향으로 풀이된다. 4월과 5월에도 각각 하루씩 입도객이 2만명이었던 날이 있었으나, 이 경우엔 날씨 영향으로 결항 항공편이 속출했던 이유였다고 도관광협회는 설명했다. 도관광협회 관계자는 “전국적인 코로나19 확산세와 거리두기 단계 강화에다 여름 휴가철도 막바지여서 당분간 입도객 수는 줄어들 것”이라고 전망했다. 제주에선 올해 들어 ‘3차 대유행’ 시기였던 지난 1월 입도객이 1만명대까지 추락한 바 있다. 지난해 11월 중순부터 시작된 확산세 여파로 하루 확진자가 1000명대를 기록하던 때다. 제주도는 하루 확진자 수가 연일 40명 안팎을 기록하며 확산세가 이어지자 이날부터 오는 29일까지 사회적 거리두기를 4단계로 격상했다. 이에 따라 오후 6시 이전까지는 4인, 그 이후에는 2인까지만 모일 수 있다. 주소지가 같은 직계가족의 경우는 예외지만, 이를 제외한 3인 이상의 제주 여행은 사실상 불가능하기 때문에 관광객 감소에도 영향을 줄 것으로 보인다. 도내 일부 숙박업계와 렌터카 업계에선 예약 취소나 고객 문의도 잇따르고 있다. [제주=뉴시스]우장호 기자 = 제주형 사회적 거리두기 2단계 시행 첫날인 18일 오후 제주시 연동 누웨마루 거리가 지나는 사람이 없어 한산한 모습을 보이고 있다. 2020.12.18. woo1223@newsis.com강동훈 제주도렌터카조합 이사장은 “사실상 3인 이상의 여행이 힘들기 때문에 격상 발표 이후 예약 취소 문의가 속출하고 있다”며 “기존 80%대 가동률에서 40%대로 떨어졌다”고 말했다. 다만, 이번 4차 대유행에 따른 관광객 감소 추이는 이전 유행 시기와 비교해 다소 늦었다는 분석도 있다. 도관광협회 관계자는 “1000명대 확진자가 나온지 40일이 넘었는데, (관광객 감소) 반응 자체가 이제야 온 것 같다”며 “특히 당시에는 1만명대로 떨어지기도 했는데 그 때보다 감소세가 둔한 것으로 보인다”고 설명했다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 김해서부문화센터, '와야G 율하 가든파티' 개최 '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 지어소프트, 8회차 CB 전환가액 하향 조정 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 英정보기관 수장 "러시아인들 푸틴 우크라 침공 비용 각성 시작" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 금호석유화학 주가, '나홀로 질주' 비결은 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 지어소프트, 8회차 CB 전환가액 하향 조정 금감원, 금융사 직원에 '프리패스 출입증' 발급 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '오송역→청주오송역' 이번엔 바뀌나?…주민의견 적극 수렴 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 美 래퍼 더 게임, 국내 공연 앞두고 일방적 불참 통보 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N1 이전 다음 관광진흥기금 정부 출연 불투명 제주도 “내년 예산 편성 어쩌나” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정치 관광진흥기금 정부 출연 불투명 제주도 “내년 예산 편성 어쩌나” 홍석준 기자 승인 2021.08.23 14:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 코로나19 여파 기금 고갈 위기 … 올해 수입 대비 지출 갑절 이상 늘어 정부 “중소관광업체 신용보증 출연만”, 도 “국가 일반재정에서도 가능” [미디어제주 홍석준 기자] 코로나19 여파로 외국인 관광객이 급감, 제주관광진흥기금이 고갈 위기에 처했음에도 국비 출연이 여의치 않아 제주도가 내년 예산 편성을 앞두고 고심을 거듭하고 있다. 제주도가 올 2월부터 수차례에 걸쳐 정부에 관광진흥기금 출연을 건의했으나, 기획재정부와 문화체육관광부가 여전히 난색을 표시하고 있기 때문이다. 문체부는 도의 기금 출연 요청에 국가 관광진흥개발기금은 중소관광업체의 신용보증을 위한 출연만 가능하다는 이유를 들어 출연 요청을 받아들이지 않고 있다. 이에 대해 제주도는 제주특별법 제246조(관광진흥개발기금 등에 관한 특례)의 국가 또는 제주자치도의 출연금을 재원으로 조성하도록 한 조항을 근거로 문체부의 관광진흥개발기금 재원 뿐만 아니라 국가 일반 재정에서도 출연할 수 있다며 지속적으로 출연을 요청 중이다. 코로나19로 무사증 입국 제도가 일시 중지돼 외국인 관광객이 급감, 주요 수입원인 출국납부금과 카지노 납부금 수입이 거의 제로인 데다 어려움에 처한 관광사업체의 경영 안정을 위한 관광진흥기금 융자 지원과 상환 유예에 따른 이차보전금 수요가 급증하고 있기 때문이다. 실제로 지난해 관광진흥기금의 주된 수입원인 카지노납부금과 출국납부금은 2019년 대비 각각 98.6%, 79.4%씩 줄어들었다. 여기에 올해는 기금 수입이 211억1700만원에 불과한 반면 기금 지출은 융자와 보조를 합쳐 427억8300만원으로 급증, 지금 지출이 수입의 갑절 이상인 것으로 나타났다. 이에 제주도는 카지노 납부금과 출국납부금 수입이 줄어든 만큼 내년에 한해 예외적으로 정부의 일반 재정에서 출연해줄 것을 요청해놓고 있다. 도 관계자는 &lt;미디어제주&gt;와 통화에서 “정부가 기금 출연 요청을 받아들이지 않는다면 내년 제주도의 일반회계에서 기금으로 출연이 불가피, 재정난이 더욱 심각해질 수 있다”고 토로했다. 한편 지난해 제주도의 관광진흥기금 신규 융자는 1679개 업체에 2070억, 상환 유예도 1139건에 2700억원이었던 데 이어 올 들어서도 신규 융자 676억원(373개 업체), 상환 유예 1177억원(844건) 등으로 기금 지출이 줄어들지 않고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>[특징주]롯데관광개발, 제주도 '롯데드림타워' 기대감 유지… '강세' 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 이데일리 로봇 단독 증권 주식 종목 펀드 국제시황 팜이데일리 마켓in 스냅타임 [특징주]롯데관광개발, 제주도 '롯데드림타워' 기대감 유지… '강세' 등록 2021-08-18 오전 10:18:00 수정 2021-08-18 오전 10:18:00 가 가 권효중 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 권효중 기자] 롯데관광개발(032350)이 최근 오픈한 제주도 롯데드림타워의 카지노, 호텔이 양호한 성과를 보여주고 있다는 분석에 주가가 코스피 지수의 오름폭을 웃도는 상승세를 보여주고 있다.18일 마켓포인트에 따르면 오전 10시 17분 현재 롯데관광개발은 1.09%, 200원 오른 1만8500원에 거래되고 있다. 앞서 롯데관광개발은 지난 2분기 296억원의 손실을 기록, 적자를 이어갔다. 다만 해외 여행 부재에 따라 관광 수요가 제주도로 집중되면서 ‘롯데드림타워’의 긍정적인 실적을 기대할 수 있다는 분석이 제기되고 있다. 이남수 키움증권 연구원은 “제주도 호캉스 수요와 신설 호텔 효과가 더해져 극성수기는 물론, 3분기에도 전체적으로 객실 점유율이 높아지고 있다”라며 “제주도의 거리두기 단계가 4단계로 격상되더라도 호텔과 항공 조합의 여행 특성, 수요 분산 등을 통해 훌륭한 대응력을 보일 것으로 전망된다”고 분석했다. 또한 오는 9월에는 호텔 타워2가 오픈되는 만큼 7~8월 여름 휴가 수요에 더해 추가적인 매출 개선 모멘텀도 유효하다. 이 연구원은 “3분기에는 6만5000객실, 4분기에는 9만객실의 매출 흐름을 보이며 실적 성장과 더불어 로컬VIP들의 카지노 재방문 등에 따른 성장세도 예상된다”라며 “하반기에는 타워2 오픈 비용 외 추가적인 비용 집행 역시 없을 것”이라고 예상했다. 이선화 KB증권 연구원 역시 “지난 2분기 드림타워 카지노 영업장의 월평균 드롭액은 오픈 초기 단골 고객이 확보되지 않은 만큼 예상보다 낮았지만, 외국인 관광객의 본격적인 유입이 예상되는 2023년 월평균 드롭액은 2200억원에 달할 것”이라고 예상했다. 그는 “9월부터는 타워2 객실 오픈 효과가 예정된데다가 성수기 효과 역시 기대할 수 있다”고 덧붙였다. 주요뉴스 똥값 된 금(金)값…이젠 금 사도 되지 않을까 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 4[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'인사하는 정진석-주호영' [포토] 살 맛나는 가격 60% 할인 [포토] 2022 제약바이오 채용박람회 개막식 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 3 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 4 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 8 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 8 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 9 김태현 국민연금 이사장 "공모주 기계적 투자, 수정 여부 검토할 것"[2022국감] 10 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 4 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 5 선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? 6 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 7 공효진♥케빈오 11일(현지시간) 뉴욕 결혼식…정려원·엄지원 미국行 8 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 9 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 10 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! '드레스를 조심해' 남다른 주먹 北 전술핵운용부대 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 문화재 보존구역 소송 25건…"허술한 관리" 지적[2022 국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 똥값 된 금(金)값…이젠 금 사도 되지 않을까 아이폰은 왜 갤럭시로 충전 못하나요[궁즉답] [단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화 .실리콘밸리서 가장 부유한 러시아인, 러 시민권 포기 .선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? .“사는 게 힘들어서…” 어린 자녀 살해 후 극단 선택한 엄마들 .문화재청 4명중 1명, 청와대 행사 동원…"업무 부담" 비판 .北 대형 잠수함 개발 실패했나…유례없는 '저수지 수중 발사' .이재명, 한미일 군사훈련에 "국방 참사이자 안보 자해행위"(종합) 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 포스코아르헨티나, 2단계 염수리튬 사업 개시…1.5조원 투자 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>김돈곤 청양군수, 칠갑호 관광개발 벤치마킹 위해 제주도 방문 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 김돈곤 청양군수, 칠갑호 관광개발 벤치마킹 위해 제주도 방문 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 김돈곤 청양군수, 칠갑호 관광개발 벤치마킹 위해 제주도 방문 송고시간2021-08-04 16:19 요약 beta 닫기 충남 청양군은 4일 김돈곤 군수가 대치면 광대리 칠갑호 지구를 명품 관광지로 탈바꿈시키는 사업과 관련해 제주도를 방문 중이라고 밝혔다. 김 군수는 전날부터 5일까지 제주도 오설록 티 뮤지엄, 미디어아트 전시시설 아르떼 뮤지엄, 무민랜드, 더 플래닛 등을 방문해 각 시설이 지닌 장점과 강점을 점검한다. 김 군수는 "다른 지역 방문을 자제해야 할 상황이지만, 칠갑호 관광개발 사업을 경쟁력 있게 추진하기 위해 부득이 우수사례를 참고하게 됐다"고 말했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 유의주 기자 기자 페이지 제주도 관광시설 둘러보는 김돈곤(오른쪽 2번째) 청양군수 [청양군 제공. 재판매 및 DB 금지] (청양=연합뉴스) 유의주 기자 = 충남 청양군은 4일 김돈곤 군수가 대치면 광대리 칠갑호 지구를 명품 관광지로 탈바꿈시키는 사업과 관련해 제주도를 방문 중이라고 밝혔다. 김 군수는 전날부터 5일까지 제주도 오설록 티 뮤지엄, 미디어아트 전시시설 아르떼 뮤지엄, 무민랜드, 더 플래닛 등을 방문해 각 시설이 지닌 장점과 강점을 점검한다. 청양군은 칠갑호 주변에 340억원을 들여 칠갑타워(110억원), 스카이워크(58억원), 관광거점 조성사업(74억원), 수상관광사업(98억원)을 추진할 계획이다. 광고 김 군수는 "다른 지역 방문을 자제해야 할 상황이지만, 칠갑호 관광개발 사업을 경쟁력 있게 추진하기 위해 부득이 우수사례를 참고하게 됐다"고 말했다. yej@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/08/04 16:19 송고 #칠갑호 #제주도 #김돈곤 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 36 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>[STOCK] 롯데관광개발, 제주도 호캉스 지속… "신설 호텔 효과 UP" - 머니S 본문영역 바로가기 2022.10.11 | 14:55:02 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소 더보기 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소2분전 김태형 감독, 8년 만에 두산 지휘봉 내려놓는다5분전 온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순7분전 DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"11분전 남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축13분전 [머니S포토] 질의 답변하는 이종국 SR대표이사18분전 최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"19분전 [머니S포토] 코레일·SR 등 2022 국회 국토위 국감20분전 광주신세계, 감홍사과 등 '가을 제철과일 모듬전'22분전 [머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장24분전 2022.10.11 기사표출기준 광고안내 독자의견 정기구독 MNB 머니바이크 하이하이 검색오픈 검색 검색 금융 은행 보험 증권섹션 재테크 정책일반 생활금융 증권 마켓 비즈니스 글로벌 재테크 가상화폐 산업 기업일반 IT 블록체인 자동차 항공물류 유통생활 정책일반 게임 의약/바이오 에너지/중공업 건설/부동산 업계일반 부동산시장동향 정책일반 재테크 생활문화 여행 맛집 출판 공연문화 교육,육아 건강 패션뷰티 이슈&amp; 창업현미경 브랜드소식 정책일반 핫이슈/트렌드 인물탐방 쇼핑몰뉴스 창업칼럼 연예 스타 드라마 예능 영화 뮤직 해외 일반 포토 스포츠 야구 해외야구 축구 해외축구 농구 배구 골프 일반 e스포츠&amp;게임 연재 정치/사회 정치 사회 지역 글로벌 인사 부고 전체 [STOCK] 롯데관광개발, 제주도 호캉스 지속… "신설 호텔 효과 UP" 머니S 조승예 기자|조회수 : 1,309|입력 : 2021.08.19 06:36 기사공유 댓글남기기 폰트크게 폰트작게 프린트 롯데관광개발이 2분기 제한적인 상황 속에서도 훌륭한 대응력을 보여줬다는 평가가 나온다. 사진은 제주드림타워 복합리조트 그랜드 키친 내부 전경./사진=롯데관광개발 롯데관광개발이 2분기 제한적인 상황 속에서도 훌륭한 대응력을 보여줬다는 평가가 나온다. 키움증권은 19일 롯데관광개발에 대해 이같이 밝히며 투자의견 '매수'와 목표주가 2만9000원을 유지했다.롯데관광개발의 2분기 매출액은 전년동기대비 3915% 증가한 245억원, 영업손실은 296억원으로 적자를 지속했다. 호텔 객실 부문은 타워1·2 합산 1600객실 기준 33.3%의 투숙률을 기록했고 객실 평균 단가는 27만2000원으로 형성됐다. 별도 매출은 총 230억원으로 객실 131억원, F&amp;B 67억원으로 집계됐다. 이남수 키움증권 연구원은 "객실 매출 대비 F&amp;B 전환율은 51.2%로 1분기 대비 다소 낮아진 모습을 보였으나 여름 성수기를 거치면서 회복세를 보일 것"이라고 분석했다. 그는 "영업비용은 541억원으로 6월에 카지노가 오픈했지만 전분기 500억원 대비 8% 증가하는데 그쳤다"면서 "효율적인 고정비용 통제가 되고 있는 것으로 판단되며 향후 매출 성장에 따라 카지노 영업관련 변동 비용의 단계적 추가만 발생하며 손실폭을 줄여 나갈 것"이라고 전망했다. 지난 6월 11일 오픈한 카지노는 순 매출 기준 일별 2억원 수준을 보이고 있다. 국내 타 외국인 카지노와 마찬가지로 로컬 VIP에만 의존해야 하는 상황은 동일하지만 정켓 모객을 주력한다는 차별점이 있다. 이 연구원은 "6월에는 일 평균 340명이 방문하며 3분기 모객에 대한 기대를 높이고 있다"면서 "해외여행 부재에 따른 제주도 호캉스는 지속되고 있으며 신설 호텔 효과가 더해져 극성수기는 물론 3분기 전체적으로 객실 점유율이 높아지고 있다"고 평가했다. 그는 "제주도 역시 지난 6월 18일부터 사회적 거리두기 단계가 4단계로 격상되며 여행 수요의 단기 부진이 발생할 것으로 보이지만 호텔과 항공 조합의 여행 특성과 늦캉스 등 수요 분산이 이뤄지며 훌륭한 실적 대응력을 보일 것"이라고 전망했다. 다음달에는 호텔 타워2 오픈이 예정되어 있어 7~8월 여름 휴가 수요에 더해 추가적인 매출 개선 포인트가 될 전망이다. 이 연구원은 "분기별로 3분기 6만5000객실, 4분기 9만객실의 매출 흐름을 보이며 실적 성장을 이룰 것으로 전망하고 객실 매출 대비 F&amp;B 전환율도 개선될 것으로 판단한다"면서 "로컬 VIP임을 고려한 카지노 부문은 신규 고객 창출보다는 재방문에 대한 마케팅을 집중하며 매출 성장을 보일 것"이라고 내다봤다. 조승예 csysy24@mt.co.kr 안녕하세요 머니S 증권팀 조승예 기자입니다 이 기자의 다른기사 보기 &gt; 공유 : 공감 0% 비공감 0% &lt;저작권자 ⓒ ‘성공을 꿈꾸는 사람들의 경제 뉴스’ 머니S, 무단전재 및 재배포 금지&gt; &lt;보도자료 및 기사 제보 (moneys@mt.co.kr)&gt; [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다" 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 랭킹뉴스 최신뉴스 추천뉴스 [단독] 청바지 신화 '뱅뱅' 차남 소유 여주 땅 경매 처분… 낙찰자 봤더니?홍진영, 젖은 머리 셀카 '찰칵'… 자숙 후 달라진 모습큰 아들 횡령 대신 주장한 박수홍 아버지, 계좌 비밀번호도 몰랐다이은형♥강재준, 방송 중 이래도 돼?… '기습 키스'에 방청객 경악'뽀식이' 이용식 아내, 10년 전 고통 토로… "사는게 사는게 아니었다"'암투병' 엄앵란, 근황 공개… "관절수술 후 거동 불편해"박시연, '음주운전' 이후 첫 공식석상… 손담비가 남긴 댓글은?무주 생일 모임 일가족 참사… 원인은 일산화탄소 중독?'친중행보 논란' 헨리, 빨갛게 부어 버린 얼굴… 대체 무슨 일?흑인 팬 하이파이브 거부?… '조이♥' 크러쉬 "제스처 오해" 수업 도중 성희롱 발언한 중학교 교사, 해임불복소송서 패소김태형 감독, 8년 만에 두산 지휘봉 내려놓는다온라인서 가장 관심 많은 항공사는 대한항공… 아시아나·제주항공 순DS 나서는 저지 "올해는 다르다"… 팬들에겐 "소리 질러"남양주시, 불법 주정차 단속 'CCTV 통합운영 시스템' 구축[머니S포토] 질의 답변하는 이종국 SR대표이사최대 캠핑축제 '고아웃 캠프' 가는 포인터웍스 "키즈 브랜드 유일"[머니S포토] 코레일·SR 등 2022 국회 국토위 국감광주신세계, 감홍사과 등 '가을 제철과일 모듬전'[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 '12월 결혼' 티아라 지연♥황재균, 헬스장 데이트 '달달'18세 박유진, 전 재산 3만원인데… 한달 배달료만 80만원?한 살 이하 손주에게 물려준 재산 '1000억'… 1년 새 3배 '쑥'최강희 근황, 시간당 1만원 고깃집 설거지 알바?'13세 나이 차' ♥정준과 결별설… 김유지 근황 보니?박수홍 응급실 실려갈 때… "'폭행' 父는 형수와 식사""하정우 슬퍼하더라"… 차현우♥황보라, 이미 법적 부부?'돌싱글즈3' 이소라, 안면 골절→응급실행… ♥최동환 "회복하자""아이폰을 입에?"… 지드래곤, 어마어마한 플렉스 면모YG "제니 개인사진 최초 유포자 경찰수사 의뢰" 코스피 : 2186.72 46.1214:37 10/11 코스닥 : 669.44 29.0514:37 10/11 원달러 : 1435.00 22.614:37 10/11 두바이유 : 96.51 2.1514:37 10/11 금 : 1675.20 34.114:37 10/11 CEO [CEO 포커스] 송재준 컴투스 대표, 콘텐츠 확장 박차… '서머너즈 워', 누적 매출 3조 머니S리포트 한화, 대우조선 이어 KAI도 품을까 맛집로드 [맛집로드] 식탁 위에 펼쳐진 지속 가능한 미식, 비건 맛집 BOOK [신간] 스타트업이 성장형 기업으로... 세계적 경영자의 동력과 신념 머니S 시리즈 기사들을 한자리에 [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? 연휴 끝난 코스피, 2200선 하회… 삼성전자는 3%대 하락 "간사 간 협의해라"… 감사원 국감, 개의 '8분'만에 파행 이전 다음 이전 다음 이전 다음 이전 다음 SLIDE[머니S포토] 코레일·SR 등 2022 국회 국토위 국감 SLIDE[머니S포토] 코레일 "감사원에 통상적 절차 답변…정보보안 철저히" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 코레일 '나희승' SLIDE[머니S포토] SR 이종국 "사전정보 보안 내부적 철저히...자료제공 면밀히" SLIDE[머니S포토] 철도공단 김한영 "철도 수송분담률 대폭 높일 것" SLIDE[머니S포토] 국회 국토위, 질의에 답변하는 나희승 사장 SLIDE[머니S포토] 질의 답변하는 이종국 SR대표이사 SLIDE[머니S포토] 감사원 국감, 질의 경청하는 최재해·유병호 SLIDE[머니S포토] 최재해 감사원장 "정치적 중립지키며 공정 감사 노력" SLIDE[머니S포토] 생각에 잠긴 최재해 감사원장 SLIDE[머니S포토] 안경 고쳐쓰는 유병호 사무총장 SLIDE[머니S포토] 감사원 국정감사, 대화하는 최재해·유병호 SLIDE[머니S포토] 법제사법위원회 감사원 국정감사 SLIDE[머니S포토] '2022 국정감사' 여야 간사와 대화하는 김도읍 위원장 SLIDE[머니S포토] 감사원 국정감사, 여야 신경전으로 파행 SLIDE[머니S포토] 국정감사 증인 선서하는 최재해 감사원장 SLIDE[머니S포토] 2022 금감원 국감, 인사 나누는 이복현·강병원 SLIDE[머니S포토] 금감원 "금융권 횡령사고 및 이상 외환거래 등 신속·강력 대응" SLIDE[머니S포토] 이복현 "공매도 국민 눈높이 맞춰 형평성 있게 보완" SLIDE[머니S포토] 2022 금감원 국정감사, 의견 나누는 이복현·이명순 SLIDE[머니S포토] 금감원 이복현 "불법·불공정 거래행위 뿌리째 뽑을 것" SLIDE[머니S포토] 2022 정무위 국감, 질의 답변하는 이복현 금감원장 SLIDE[머니S포토] 금감원 "소상공·중소기업, 충격없이 연착륙하도록 지원" SLIDE[머니S포토] 이복현 "보이스피싱 등 민생침해 금융범죄 척결위해 총력" SLIDE[머니S포토] 2022 한은 국감, 마스크 고쳐쓰는 이창용 총재 SLIDE[머니S포토] 한은 이창용 "IMF 내 韓 외환보유고 적다는 인원 없어" SLIDE[머니S포토] 이창용 'PF·제2금융권 부실 현실화..."문제 될 수 있어"' SLIDE[머니S포토] 통화스와프 관련 질의 답하는 이창용 한은 총재 SLIDE[머니S포토] 한은 이창용 "물가 내년 1분기까지 5%대...하반기 내려갈듯" SLIDE[머니S포토] 2022 국회 기재위 국감, 답변하는 한은 이창용 총재 [기자수첩] 기업 혁신 막는 규제, 이제 버릴 때가 됐다 소비자 안전·환경 등과 관련된 기업 규제는 엄격해야 한다. 반면 미래로 도약하기 위한 혁신만큼은 길을 열어줘야 발전 속도가 빠르고 세계시장을 주도할 수 있다.국내 기업은 규제에 발목이 잡혀 이 같은 논리와 늘 거리가 멀었다. 언제나 현실과 동떨어진 규제가 변화의 흐름을 끊고 발전을 막았다. 편리한 서비스를 원하는 소비자만 피해를 봤다.모빌리티 플랫폼 타다 사례가 대표적이다. 최근 서울중앙지방법원 형사항소1-1부(부장판사 장찬·맹현무·김형작)는 타다를 불법 운영한 혐의로 재판에 넘겨진 이재웅 전 쏘카 대표와 쏘카의 전 자회사 브이씨앤씨(VCNC)의 박재욱 전 대표에 대한 항소심 선고 공판에서 무죄를 선고했다. 이들에게 적용됐던 혐의는 "여객자동차운수사업법" 위반이다. 타다는 운전자가 딸린 11인승 승합차를 이용자에게 빌려주는 서비스다. 이용자는 타다 서비스 이용을 위해 스마트폰 애플리케이션(앱)으로 호출하면 된다. 타다의 운영사이자 과거 쏘카의 자회사였던 VCNC는 쏘카에게 렌.. [법률S토리] 과세특례 활용으로 절세해 볼까[고수칼럼] 계속되는 금리인상 폭탄… 시장이 내딛는 발걸음 따라가야[청계광장]노동기본권에 대한 발상의 전환[기자수첩] 네카오 보험 비교·추천, 이대로 괜찮을까? 제770호한화, 세계 최고의 방위산업체를 꿈꾸다 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 김승연에서 김동관으로… 대 잇는 'M&amp;A 승부사' DNA 새 판 짜는 한화, 중심엔 '김동관 리더십' 한화, 대우조선 이어 KAI도 품을까 제769호재개발·재건축 변함없는 '복마전' [르포] 인천 숭의5구역 'SK vs 두산', 시공사 선정 난항 [르포] 신반포15차 '2차전'… 대우건설 vs 롯데건설 또 만났다 잠실 미성·크로바 벌금형 받은 '롯데건설'… 시공계약 유지할 수 있을까 제768호민간 주도 성장, 다시 뛰는 대한민국 '퍼펙트 스톰' 경고음… 돌파구는 '민간 주도 성장' 위기극복 팔 걷은 기업들… 한국 도약 이끈다 기업 끌고 정부 밀고… K-반도체, 공급망 주도권 쥔다 기업이 여는 '뉴 스페이스'… 민간 우주시대 활짝 "이번엔 K-원전"… 글로벌 시장 '정조준' 회사소개 정기구독 사이버몰이용약관 저작권규약 개인정보처리방침 광고안내 독자의견 머니앤밸류   서울시 종로구 청계천로 11(서린동, 청계한국빌딩)   제호: 머니에스   대표이사/발행인/편집인: 박정용등록번호:서울 아01082    등록일/발행일:2010.1.5    사업자등록번호 101-81-94590통신판매신고번호 제 01-1022호    호스팅사업자 주식회사 후이즈전자우편주소 moneys@mt.co.kr    Tel: 02-724-0959    청소년보호책임자: 강인귀 COPYRIGHT © MONEYS ALL RIGHTS RESERVED.</t>
+  </si>
+  <si>
+    <t>첫 2000명대 확진자...제주도로 떠나는 관광객들 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 최신포토인기포토해외포토분야별포토연예스포츠슬라이드펫카드그래픽뉴스 홈 &gt; 포토 &gt; 지방 &gt; 서울 최근 슬라이드 선택 이전 다음 첫 2000명대 확진자...제주도로 떠나는 관광객들 2021/08/11 14:46 송고 이전 다음 정지 자동넘김 시작 자동넘김 멈춤 (인천=뉴스1) 정진욱 기자 = 관광객들이 11일 서울 강서구 김포공항 국내선 출국장에 들어서고 있다. 이날은 신종 코로나바이러스 감염증(코로나19)첫 확진자 발병 후 처음으로 2000명대 확진자를 기록했다. 2021.8.11/뉴스1		guts@news1.kr 기사원문보기 댓글보기 인기 화보 갤러리 [연예가화제] 3년 만에 관객 품으로 돌아온 BIFF [국회ㆍ정당] 윤석열 정부 첫 국감 시작..여야 전방위 격돌 [국방ㆍ외교] '바다 위 군사기지' 美 핵항모 로널드 레이건호, 부산 입항 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>관광공사, ‘집콕 한국 나들이 이벤트’… 한식진흥원·대구·제주도 등 참여 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 관광공사, ‘집콕 한국 나들이 이벤트’… 한식진흥원·대구·제주도 등 참여 정기후원 관광공사, ‘집콕 한국 나들이 이벤트’… 한식진흥원·대구·제주도 등 참여 활발한 협업으로 코로나속 방한마케팅 ‘활기’ 전형준 기자 | 기사입력 2021.08.10. 19:15:01 페이스북 트위터 카카오스토리 밴드 URL복사 재택근무, 휴교령 등으로 집에서 생활하는 시간이 늘어난 대만 소비자들을 대상으로 한국문화를 알리고 포스트코로나 시대에 방한관광을 유도하고자 한국관광공사 타이베이지사는 지자체, 공공기관, 현지 업체 등과 협업한 비대면 마케팅 ‘집콕 한국 나들이 이벤트’를 지난 5월부터 펼치고 있다. ‘집콕 이벤트’는 매회차별로 한식, 한류, 전통공예 등 다양한 주제의 콘텐츠를 제작해 온라인으로 홍보하고, 소비자로 하여금 한국문화를 간접적으로 체험을 할 수 있도록 체험박스를 제공하는 이벤트다. ⓒ한국관광공사 각 이벤트에는 한식진흥원, 대구광역시, 제주특별자치도, friDay(대만 OTT업체), 롯데면세점, 정관장 등 유관업체와 기관들의 적극적인 참여 속에 다양한 콘텐츠를 선보이며 대만 소비자들의 관심을 모으고 있다. 특히 대만 MZ세대를 겨냥해 오는 12일부터 개시하는 집콕 이벤트가 눈길을 끈다. 한류를 주제로 한 이 행사에는 대만 3대 OTT(온라인 동영상서비스) 업체 중 하나인 ‘friDay’가 참여해 하루 약 6만5000명 이상이 방문하는 자사 누리집 및 30여 만 명의 팔로워를 보유하고 있는 SNS를 통해 대학로 공연과 최신 한류관광지를 소개하게 된다. 공사는 홍보영상물에 댓글을 남긴 참가자 중 500명을 선발해 BTS 관련 기념품, K-드라마 스틸컷 및 촬영지 기념엽서, 짜파구리와 한국스낵 등으로 구성된 체험박스를 제공할 예정이다. 이밖에 9월에는 제주특별자치도와 함께 한식을 주제로 제주오메기떡 등 제주음식과 여행지를 함께 홍보하는 집콕 이벤트도 예정돼 있다. 공사 이장의 타이베이지사장은 “총 7차에 걸쳐 진행되는 집콕 이벤트는 1차 한식 밀키트 체험부터 체험박스 제공 인원의 3배가 넘는 참가자가 신청하는 등 대만 소비자들에게 매우 높은 인기를 끌고 있다”며, “이번 이벤트는 기관 및 업체와의 협업을 통한 시너지 효과로 최소 43만여 명의 소비자에게 홍보될 것으로 기대된다” 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 관광공사, ‘집콕 한국 나들이 이벤트’… 한식진흥원·대구·제주도 등 참여 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 전형준 기자 jhj2529@pressian.com 강원취재본부 전형준 기자입니다. 최근글보기 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도가 인정한 친환경 '녹색관광지' 11곳은 어디? &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도가 인정한 친환경 '녹색관광지' 11곳은 어디? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도가 인정한 친환경 '녹색관광지' 11곳은 어디? 기자명 이승록 기자					(leerevol@naver.com) 입력 2021.08.16 17:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도와 제주녹색구매지원센터는 ‘녹색관광지 만들기’ 사업에 참여하고 있는 사설관광지 11곳에 녹색제품을 지원했다고 16일 밝혔다.이번 지원은 도내 생산 녹색제품 보급 촉진과 함께, 해당 사설관광지 내 물품의 녹색제품 전환을 유도하기 위해 기획됐으며, 지난 2016년부터 도내 관광업계와 협력을 통한 지역특화사업으로 추진하고 있다.도내 생산 녹색제품 중 사무용지 및 화장지류 등을 지원해 추가적인 녹색제품 구매를 도내 녹색제품 생산업체와 연결하고 있다.녹색관광지 참여 사설관광지는 김녕미로공원, 김녕요트투어, 메이즈랜드, 방림원, 상효원, 생각하는 정원, 제주미니랜드, 제주민속촌, 제주해양동물박물관, 카멜리아 힐, 휴애리 자연생활공원 등 총 11곳이다.‘녹색관광지 만들기’는 친환경 소비 확산을 위한 사업의 일환으로 녹색제품 보급촉진과 그린카드 혜택 적용 사설관광지 확대 및 홍보를 지원하는 사업이다.그린카드는 친환경제품 구매, 에너지절약 등 친환경 소비생활 실천 시 포인트 제공 및 공공시설 할인 혜택 등을 제공하는 카드서비스다.녹색관광지를 방문해 그린카드를 제시하면 일정수준의 할인 혜택을 받을 수 있다. 기타 서비스 이용 관련 문의는 제주녹색구매지원센터(064-759-2160)로 문의하면 된다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 드론 활용 관광지 '무장애 데이터 구축' 추진 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 사회 복지 속보 큐브엔터, (여자)아이들 미니 5집 'I love' 선주문 70만장 돌파코웨이, KCSI 조사 침대·정수기 만족도 1위제주 도내 사회적경제기업 총 638개소…제주도 "맞춤형 지원"[부고] 지영흔(하나은행 홍보팀장)씨 부친상에이프로젠, 휴미라 바이오시밀러 특허 출원...생산성 증대삼성전자, 웰스토리 검찰 압수수색 불복 준항고 취하안실련ᐧ자살예방 시트백커버 1800세트 전국모범운전자연합회 기증 시티랩스, '그리고'에 국내 최초 운전면허 명의도용 방지 안면인증 솔루션 공급이엔플러스, 2차전지 양산 핵심설비 반입 완료…"내년 양산 준비 순항"안성 한 지역농협서 5억원 빼돌린 직원 자수...검찰 송치[국감] 송석준 "토스·카카오페이 등 선불충전 악용 보이스피싱 4년간 310배 폭증"3분기, 국내 기업 자금조달 250조9000억원…전년比 22.2%↓[국감] 정청래 "尹대통령, 디지털 키우겠다면서 예산은 삭감? 앞뒤 안맞아"[국감] 덕수궁 석조전 대한제국역사관, 국립박물관이지만 "유물 구입비 전무"신라젠, 내일 상폐여부 결정...17만 개미 운명은?[속보] 대전경찰청, '대전 화재' 관련 현대백화점그룹 본사 압수수색 [국감] 이복현 금감원장 "보험사 GA 설립 시 부당행위 면밀히 보겠다"금투협회 21일 차기 회장 선임 본격화... 서명석·전병조 등 5인 거론 김포-하네다 항공운항 30일부터 주 28회→56회로 늘린다9월 장외채권금리 3년물 0.5%p↑...美 금리인상 영향 더보기 제주도, 드론 활용 관광지 '무장애 데이터 구축' 추진 기사입력 : 2021년08월09일 15:00 최종수정 : 2021년08월09일 15:01 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [제주=뉴스핌] 변준성 기자 = 제주특별자치도는 드론을 활용한 모바일 무장애 여행 관광지 길안내 서비스인 '관광지 무장애 데이터 구축사업'을 추진하기 위해 8월 중 사전 규격 및 사업 공고를 실시할 계획이라고 밝혔다. 이번 사업은 드론라이다(LIDAR)를 활용해 모바일 무장애 여행 관광지 길안내 서비스 기반 자료를 구축하기 위해 추진되고 있다. 관광의 도시 제주도가 드론을 활용해 이동약자의 관광지 무장애 데이터를 구축한다.[사진=제주특별자치도]2021.08.09 tcnews@newspim.com 제주도는 보건복지 분야에 최첨단 과학기술을 활용한 무장애 데이터 구축을 통해 장애인·노인 등 이동약자의 복지 사각지대를 해소할 계획이다. 사업에는 지방비 9,800만 원이 투입된다. 사업 공고 후 9월 사업자를 선정하고, 11월 말까지 제주돌문화공원 등 관광지 30개소를 대상으로 드론 라이다를 촬영해 데이터를 수집할 계획이다. 이번 사업을 통해 이동약자들의 관광지 등 교통 접근성과 편의성을 개선하고, 이동권 보장을 위한 데이터 생산과 관리체계를 구축한다. 그동안 시설물에 대한 정보들이 대부분 텍스트 위주와 현장과 일치하지 않은 부정확한 데이터가 제공되면서 이동 약자들이 많은 불편을 겪어 왔다. 이를 개선하기 위해 드론라이다를 활용해 측량데이터와 사진 이미지를 융합하여 점용물 확인, 인도폭 계산, 계단 등 필요한 데이터를 추출한다. 이와 함께 휠체어 사용자를 위해 경사로 입구, 휠체어 리프트 이동 편의시설 위치 정보와 급경사 등이 포함한 위험지역 등의 데이터도 포함된다. 윤형석 도 미래전략국장은 "누구나 보편적으로 일상에서 안전하고 편리하게 활용할 수 있도록 데이터 연계와 융합 기술을 더욱 발전시켜 나가겠다"고 밝혔다. tcnews@newspim.com [관련기사] 평택시·신임 주한미군사령관 상생발전 논의"ASF 확산 막자"…포천시 24시간 소독시설운영 등 방역 총력김해시 집합금지 위반 유흥시설 1곳 적발...형사고발 GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '하이서울패션쇼, '3년 만에 직관' 법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 안다 TV 영상 [영상] 유병호, '대통령실 문자 논란' 첫 해명..."송구하긴 하지만 정상적 의사소통" 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>"반갑지만, 걱정"…관광객 하루 4만 명 넘긴 제주도의 고민 한국일보 "반갑지만, 걱정"…관광객 하루 4만 명 넘긴 제주도의 고민 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 "반갑지만, 걱정"…관광객 하루 4만 명 넘긴 제주도의 고민 입력 2021.08.04 01:00 수정 2021.08.04 01:06 좋아요 0 0 0 댓글달기 0 코로나19 하루 신규 확진자 수가 19일째 네 자릿수를 기록한 지난달 25일 제주국제공항 1층 도착장이 가족과 친구, 연인들로 북적이고 있다. 뉴시스여름 휴가철이 절정으로 가고 있는 가운데 국내 ‘관광 1번지’ 제주도엔 연일 4만 명 안팎의 휴가객들이 몰리고 있다. 신종 코로나바이러스 감염증(코로나19) 여파로 관광객이 급감, 힘든 시기를 보낸 삼다도여서 어느 때보다 반겨야 할 상황이지만, 손님들을 맞는 도민들의 마음은 그렇지 않다.제주 시내에서 흑돼지 구이 가게를 운영하는 김경숙(56)씨는 “관광객이 많이 와도 4인 이상 손님을 받을 수가 없어 여전히 어려운 상황인데, 확진자가 다녀가지 않을지 걱정”이라며 “손님은 반갑지만, 이 손님이 확진자 또는 접촉자는 아닐까 하는 걱정으로 맞고 있다”고 말했다. 3일 제주도와 도관광협회에 따르면 지난달 30일부터 2일까지 나흘 동안 제주를 찾은 내국인 관광객은 각각 4만2,783명, 4만6,909명, 4만4,382명, 3만8,571명으로 집계됐다. 일일 방문자 수가 4만 명을 넘은 것은 6월 말 이후 한 달 만이다. 업계는 코로나19 4차 대유행 여파로 휴가를 미루는 이들이 많아지면서 이 같은 규모의 관광객은 이달 중순까지 이어질 것으로 내다봤다.문제는 좀처럼 꺾일 기미를 보이지 않는 코로나19 확진자 수다. 제주도에선 연일 두 자릿수를 기록하고 있다. 지난달 27일부터 이날까지 1주일 동안 발생한 환자는 144명으로, 일평균 20.6명을 기록하고 있다. 스포츠 마사지 가게를 운영하는 정찬임(61)씨도 "단체 손님 문의가 들어와도 불안해서 받을 수가 없다"면서 "코로나가 빨리 진정돼야지, 제주도에 관광객이 아무리 많이 와도 영업에 큰 도움이 안 되는 상황”이라고 말했다.실제 제주에서 코로나19 사태 이후 가장 많은 확진자가 발생한 지난달 제주 확진자 3명 중 1명은 외부 요인에 의한 감염 사례였다. 7월 확진자 487명 중 160명(32.8%)이 타 지역 확진자와 접촉하거나 타 지역에서 입도한 확진자였다.제주도도 도내에서 집단감염 등을 통한 지역 확산이 좀처럼 잡히지 않는 가운데 피서철 관광객까지 가세하면서 긴장을 늦추지 못하고 있다. 도 관계자는 "제주도를 찾아주셔서 감사드린다”면서도 “마스크 착용과 방역수칙을 철저하게 지키면서 제주를 즐겨주실 것을 부탁드린다”고 말했다. 박경우 기자 gwpark@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 "반갑지만, 걱정"…관광객 하루 4만 명 넘긴 제주도의 고민 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 &lt; 생활/문화 &lt; 뉴스 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:55 (화) 실시간 뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 생활/문화 제주도, 제8회 제주국제크루즈포럼 개최…크루즈관광 트렌드 공유 기자명 오형석 기자 입력 2021.08.12 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국내·외 크루즈 관계자 20개 국·1,600여 명 온·오프라인 참여 [시사매거진/제주] 제주특별자치도는 오는 26일부터 28일까지 제주신화월드 랜딩컨벤션센터에서 ‘제8회 제주국제크루즈포럼’을 온·오프라인으로 병행해 추진한다고 밝혔다. 해양수산부와 제주도가 주최하고 제주관광공사가 주관하는 이번 포럼은 ‘포스트 코로나, 아시아 크루즈산업의 대전환’이라는 대주제로 진행된다. 포럼에는 국내·외 크루즈 관계자 약 20개국 1,600여 명이 온·오프라인으로 참가해 포스트 코로나 시대에 걸맞은 크루즈산업 발전 방안을 논의한다. 이번 포럼에서는 코로나19로 위기에 놓인 세계 크루즈산업의 회복과 지속 가능성, 포스트 코로나 시대 크루즈와 지역발전, 지속가능한 한국 크루즈산업 재도약 방안 등 크루즈관광 산업의 트렌드 변화를 모색한다. 26일 오전 10시 개막식을 시작으로 2개의 세션에서 ‘포스트 코로나 아시아 크루즈관광 변화와 트렌드 및 지역발전’에 대한 발표와 토론이 진행된다. 27일에는 2개의 세션에서 새로운 트렌드인 ‘친환경’과 ‘지속가능성’에 대해 고민하고, ‘한국 크루즈산업 재도약 방안’에 대해 심도 있게 다룰 예정이다. 28일에는 크루즈 관광객이 제주 기항 시 제주의 다채로운 매력을 충분하게 느낄 수 있는 포스트 투어가 예정되어 있다. 이외에 참가자를 대상으로 설문조사를 진행하고, 만족도 높은 관광지는 신규 제주 크루즈기항 관광프로그램으로 구성하는 등 마케팅 방안도 마련할 방침이다. 온라인 시청은 유튜브(주소 추후 공개)와 제주국제크루즈포럼 홈페이지를 통해 가능하다. 기타 자세한 사항은 제주국제크루즈포럼 홈페이지를 통해 확인 가능하다. 양홍식 도 해양수산국장은 “이번 포럼을 통해 포스트 코로나 시대 크루즈산업의 나아갈 방향이 제시되길 기대한다”면서 “제주 중심의 아시아 크루즈 네트워크가 지속적으로 유지돼 제주 크루즈산업 발전의 디딤돌이 되길 바란다”고 말했다. 한편, 제주국제크루즈포럼은 동북아시아를 중심으로 세계 크루즈산업의 육성 방안 모색을 위해 2013년 창설된 후 매년 제주에서 개최되고 있는데 지난해에는 코로나19로 취소됐다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 ‘마리엔펠트’ 30주년 기념 비스포크 행사 성료 포토뉴스 결혼정보회사 가연, 좋은 인연 위한 미팅파티 마련 진아름 결혼소감, ♥남궁민과 "성숙하고 예쁘게 살 것" 바비모, ‘시카 리페어 부스트 크림’ 출시 답변하는 이복현 금융감독원장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>한라산1950, 24회 제주도 관광기념품 공모전 금상 수상 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회이슈 urlhttps://www.sedaily.com/NewsView/22Q1N9KHZI 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회이슈 한라산1950, 24회 제주도 관광기념품 공모전 금상 수상 입력2021-08-03 10:11:32 수정 2021.08.03 10:11:32 김동호 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 한라산1950, 24회 제주도 관광기념품 공모전 금상 수상한라벗의 한라산1950이 제주도와 제주도관광협회에서 주최한 24회 제주도 관광기념품 공모전에서 금상을 수상했다. viewer 사진: 제주도 관광기념품 공모전에서 금상을 수상한 한라산1950 코콜릿 / 사진제공: ㈜한라벗제주도와 제주도관광협회(회장 부동석)는 제24회 제주도 관광기념품 공모전에서 한라벗(대표: 이지현)이 출품한 ‘한라산1950’이 금상을 수상했다고 밝혔다. 이번 공모전의 대상 수상작은 없다. 당선작은 금상 2점, 은상 3점, 동상 4점, 장려상 3점, 입선 5점이다. 대상이 없기 때문에 금상이 사실상 1등 수상작이다. 총 155개 작품이 접수된 가운데 두 차례에 걸쳐 상품성·디자인·창의성·실용성을 종합적으로 평가했다. '한라산1950'은 한라산 모형의 초콜릿을 3D로 제작해 봄에는 백년초, 여름에는 말차, 가을에는 우도땅콩, 겨울에는 감귤로 한라산의 4계절을 표현해 심사위원들의 호평을 받았다.한라산1950은 식용 색소나 화학제품을 전혀 넣지 않고 순수 분말과 에콰도르 카카오 버터만을 사용하여 제품 본연의 맛을 낸 한라벗의 하이엔드급 초콜릿 브랜드다. 한라산1950에 사용하는 화이트 초콜릿은 에콰도르 현지에서 수입된 고급 제품이다. 화이트 초콜릿 재료로 쓰이는 우유는 에콰도르 키토(quito)근처에 있는 카얌베 화산의 작은 언덕에서 소규모 낙농공동체에 의해 생산된 것으로 달고 부드러운 식감을 가지고 있다. 한라벗 이지현 대표는 “기존의 초콜릿들은 고가의 카카오버터를 사용할 수 없어 이를 대체할 식물성 유지가 들어간다 팜유 등의 식물성 유지가 카카오버터대신에 들어간 경우 엄밀히 말하면 초콜릿이 아닌 초콜릿 가공품이다”라며 ”한라산1950은 제주를 자연환경을 모티브로 한 이야깃거리와 그에 걸맞은 맛을 갖췄다고 생각한다”고 말했다. ㈜한라벗은 1950년 제주도에서 창업을 한 특산품 제조 업체로 제주의 아름다운 자연 환경을 담은 초콜릿, 빵 등의 특산품을 개발하여 판매하고 있다. 대표 상품으로는 호두와 현미로 크런키한 식감을 살린 현무암 초콜릿, 건초과일과 건과류를 재료로 먹기 좋은 크기로 만든 큐브 초콜릿 등이 있다. 한라산1950은 제주공항내 판매점, 아르떼뮤지엄 기념품 판매소, 진에어 기내판매점, 씨에스호텔, 홈페이지 등을 통해 구매할 수 있다. &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 김동호 기자 디지털미디어센터 dongho@sedaily.com 제33회 이건음악회 11월 11일 개막…‘뷔르템베르크 챔버 오케스트라 하일브론’ 내한공연 솔라옵틱스, 광 소재원천기술 라이선스 사업 본격화 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:56 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 대한민국 ‘생태관광 중심’ 도약 본격화 기자명 문서현 기자 입력 2021.08.01 18:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 8월 17∼9월 17일 프로그램·숙박시설 등 시범인증 대상 모집 (제주=국제뉴스) 문서현 기자 = 생태관광은 기억 속에서 떠올리던 시골의 풍경을 찾아가 휴식을 취하고 동심이 되어 놀아 보는 것 같은 만족을 주는 관광의 한 방법이다. 제주도가 이 같은 제주생태관광인증제 시행을 앞두고 시범 인증대상을 모집한다, 1일 제주도에 따르면 오는 17일부터 9월 17일까지 생태관광지역, 생태관광 프로그램, 생태관광 관련 숙박시설 등 3개분야에 시범인증 대상을 모집한다고 밝혔다 생태관광지역은 △자연관광 또는 생태관광 대상 장소 및 장소를 대표하는 특정 시설물 △농어촌마을이나 관광목적의 자연지역 △방문자센터나 탐조시설 △탐방로 △체험센터 등이다. 생태관광 프로그램은 여행업으로 등록된 기업이나 단체에서 판매하는 여행상품이나 마을 등의 단체(혹은 개인)가 개발해 운영하는 관광상품 등이다. 생태관광 관련 숙박시설은 50객실 이하의 규모로 친환경적 숙박을 위해 고안된 시설·호텔·콘도미니엄·펜션·민박·캠핑장 등이다. 심사는 제주생태관광지원센터(대표 고제량)의 심사계획에 따라 인증심사위원회를 구성해 평가하게 된다. 도는 선정된 생태관광지역과 프로그램, 숙박시설에는 인증서 전달 및 제주도 생태관광 지도 제작과 홍보 등을 지원할 계획이다. 자세한 사항은 제주생태관광지원센터(☎064-782-3253)나 (사)제주생태관광협회 홈페이지(www.jejuecotour.com)를 통해 확인 하면 된다. 민영뉴스통신사 국제뉴스/start-to@hanmail.net 키워드 #제주생태관광지원센터 #제주도 #제주생태인증 #생태관광 #숙박시설 #친환경 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 질의에 답하는 조희송 한강유역환경청장 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? '보성 제암산자연휴양림' 가을 워크숍 인기 김종길 전 재경의령향우회 회장, 장학금 천만 원 기탁 최신뉴스 질의에 답하는 조희송 한강유역환경청장 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? '보성 제암산자연휴양림' 가을 워크숍 인기 포토뉴스 질의에 답하는 조희송 한강유역환경청장 [2022 10월 모의고사] 12일 진행 '시간표·9월 등급컷·난이도·수능날짜는?' 조쉬 오코지, '드라이브인' 송강호 첫 드라마 '삼식이 삼촌' 라인업·몇부작·출연진 누구? 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 &lt; 라이프 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:55 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 기자명 정기환 기자 입력 2021.08.04 14:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 김돈곤 청양군수 칠갑호 관광개발 위해 제주도 벤치마킹 [디스커버리뉴스=정기환 기자] 김돈곤 청양군수가 대치면 광대리 칠갑호 지구를 명품관광지로 바꿔나가기 위해 제주도 사례를 참고하고 있다. 김 군수는 3일부터 5일까지 새 랜드마크 역할을 할 칠갑타워 건축을 앞두고 특색 있는 구성을 위해 휴식과 차 문화를 즐길 수 있는 오설록 티 뮤지엄, 미디어아트 전시시설 아르떼 뮤지엄, 무민랜드, 더 플래닛 등을 방문해 각 시설이 지닌 장점과 강점을 체크하고 있다. 또 칠갑호 수상관광사업에 접목할 스누피 가든, 불빛정원 테마파크, 그리스 신화 뮤지엄, 라프 짚라인 등을 찾아 가족 단위 관광객들의 선호도 프로그램을 파악하고 있다. 군은 칠갑호 주변에 총사업비 340억원을 투자해 칠갑타워 스카이워크 관광거점 조성사업 수상관광사업을 추진할 계획이라고 전했다. 김돈곤 군수는 “현재 코로나19 상황으로 다른 지역 방문을 자제해야 할 상황이기는 하지만 칠갑호 관광개발사업을 경쟁력 있게 추진하기 위해 부득이 우수사례를 참고하게 됐다”며 “차별화된 칠갑타워 전시 프로그램으로 관광객을 맞을 수 있도록 최선을 다하고 있다”고 밝혔다. 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 '5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 : 스포츠조선 뉴스 최신뉴스 카드뉴스 PDF 보기 포토 펀펌 스포츠 야구 축구 농구 배구 골프 학교체육 연예 SC초점 SC이슈 SC현장 라이프 여행레저 헬스케어 Family Site 청룡영화상 청룡시리즈어워즈 조선일보 와이즈토토 야구 축구 종합 연예 라이프 포토 만화 운세 Diva 운세의신 달리고 펀펌 연예 '5년째 열애' 세븐♥이다해, '럽스타그램♡'하더니 여행은 따로?..제주도 관광 중 기사입력 2021-08-03 13:10:43 [스포츠조선닷컴 김수현기자] 배우 이다해가 제주도로 여행을 떠났다. 이다해는 3일 인스타그램에 "타잔으로 컨셉 잡은 듯"이라는 글과 함께 여러 장의 사진을 게재했다. 사진에는 제주도의 한 카페에서 더운 날씨지만 여유를 즐기는 이다해의 모습이 담겼다. 이다해는 긴 생머리를 휘날리며 호피 패턴 원피스로 섹시한 분위기를 더했다. 한편 이다해는 지난 2016년부터 가수 세븐과 공개 연애 중이다.shyun@sportschosun.com 톱배우 충격 근황..파킨슨병으로 불편한 모습 “온몸 두들겨 맞는듯한 한해 보내” 김지민 “쌍둥이 임신해서 ♥김준호와 결혼한다고”→박미선 “떠밀려 결혼하지 마” '부모 빚투' 마이크로닷, '닭발집' 앞에서 근황을? 코 수술·뮤비 촬영 위해 귀국 '뺑소니' 조형기, 방송가 사라진 후 “美 필라델피아서 자주 목격” 박미선·김용만 불화로 갈등..“좋은 사람 아닌 것 같아” 연예 많이본뉴스 1.신화 신혜성, 도난차량서 음주측정 거부하다가 체포 2.마돈나, 41세 연하남과 열애 부담됐나? 급기야 성형의혹까지 3.'결혼지옥' 73세 아내 "79세 남편 세 번의 외도"..오은영 "배우자 외도 치명상" [SC리뷰] 4.김태희, '♥비 골프선수 불륜설' 극복..'하이바이, 마마' 향한 끈끈한 우정 5."최초공개" 오상진♥김소영, 이름도 비밀이었던 딸+집안 내부 [종합] ('동상이몽2') 스포츠 많이본뉴스 1.트레이드 실패? 이대호의 '아픈 손가락'…천재 유격수 향한 '의미심장' 마지막 당부 [SC포커스] 2."나는 게이다" 후폭풍…카시야스, 팔로워 300만 빠졌다 3.'괴물' 데려온 伊 에이전트 "나폴리에 1년 전부터 김민재 제안" 4.'55세 225일' 日축구영웅의 노욕, 팬들도 질렸다 "미우라를 월드컵으로!" 5.'너무 망가져 보인다' 눈물 참는 명장, 고통 받는 충격 근황 스포츠조선 회사소개 광고/제휴문의 사진대여 신문구독신청 개인정보처리방침 청소년보호정책 조선일보 와이즈토토 청룡영화상 등록번호 : 서울 아01720 등록일자 : 2011년 7월 29일 발행일자 : 2000년 11월 1일 주소 : 서울 양천구 목동동로 233-1 전화번호 :02-3219-8114 발행인 : 이성관 편집인 : 신보순 청소년보호책임자 : 이재훈 RSS PDF Copyright (c) SPORTSCHOSUN.COM All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 드론 활용한 이동약자 관광지 무장애 데이터 구축 시동 전체기사 | SECURITY | IT | SAFETY | | 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 클라우드 마비의 이유, 결과 그리고 ... 랜섬웨어의 발전과 진화에 맞서 IT가... Masscan 랜섬웨어, DB 서버 ... 이란 국영방송 해킹! 이란 지도자 과... 로그인 | 회원가입 | 기사제보 | 스크랩 통합검색 뉴스 기자명 컨텐츠 상호검색 제품검색 전체기사 SECURITY IT SAFETY Security World #전체기사 #시큐리티월드 #사건사고 #프리미엄 리포트 #NFT #ISEC 2022 뉴스레터 신청 시큐리티 콘텐츠 Home &gt; 전체기사 제주도, 드론 활용한 이동약자 관광지 무장애 데이터 구축 시동 |  입력 : 2021-08-10 10:43 #4차 산업혁명 #ICT #드론 #제주도 8월 중 데이터 구축 사업 위한 사전 규격·공고…11월 사업 완료[보안뉴스 박미영 기자] 제주도는 드론을 활용한 모바일 무장애여행 관광지 길안내 서비스인 ‘관광지 무장애 데이터 구축 사업’을 추진하기 위해 8월 중 사전 규격 및 사업 공고를 실시할 계획이라고 밝혔다.이번 사업은 드론 라이다(LIDAR)를 활용해 모바일 무장애여행 관광지 길안내 서비스 기반 자료를 구축하기 위해 추진되고 있다. 제주도는 보건복지 분야에 최첨단 과학기술을 활용한 무장애 데이터 구축을 통해 장애인·노인 등 이동약자의 복지 사각지대를 해소할 계획이다.사업에는 지방비 9,800만원이 투입된다. 사업 공고 후 9월 사업자를 선정하고, 11월 말까지 제주돌문화공원 등 관광지 30개소를 대상으로 드론 라이다를 촬영해 데이터를 수집할 계획이다.이번 사업을 통해 이동약자들의 관광지 등 교통 접근성과 편의성을 개선하고, 이동권 보장을 위한 데이터 생산과 관리체계를 구축한다. 그동안 시설물에 대한 정보들이 대부분 텍스트 위주와 현장과 일치하지 않은 부정확한 데이터가 제공되면서 이동 약자들이 많은 불편을 겪어 왔다. 이를 개선하기 위해 드론 라이다를 활용해 측량데이터와 사진 이미지를 융합해 점용물 확인, 인도폭 계산, 계단 등 필요한 데이터를 추출한다. 이와 함께 휠체어 사용자를 위해 경사로 입구, 휠체어 리프트 이동 편의시설 위치정보와 급경사 등이 포함한 위험지역 등의 데이터도 포함된다.윤형석 도 미래전략국장은 “누구나 보편적으로 일상에서 안전하고 편리하게 활용할 수 있도록 데이터 연계와 융합 기술을 더욱 발전시켜 나가겠다”고 밝혔다.[박미영 기자(mypark@boannews.com)]&lt;저작권자: 보안뉴스(www.boannews.com) 무단전재-재배포금지&gt; 박미영기자 기사보기 0 0 헤드라인 뉴스 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 할 것들 Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 공격 통해 감염 확산 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 이미지 노출 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디에 집중해야 하나 TOP 뉴스디지털 전환 등 여러 문제를 해결하고 싶다? 어...미국 공항 웹사이트, 친러 성향 해킹 단체에 공...인텔, 엘더레이크 바이오스의 소스코드 유출 인정포티넷 제품에서 발견된 취약점, 실제 공격에 활...줌 피싱 공격 통한 마이크로소프트 익스체인지 크...아이스드아이디 멀웨어 운영자들, 전략의 다양화 ...‘제2기 KISA 대학생 영상 서포터즈’ 해단식...TTA, ‘한국 주도 글로벌 사실표준화기구 신설... 로그인 후 댓글을 입력하세요. 가장 많이 본 기사 [주간] 제2대 개인정보보호위원회 위원장에 고학수 서울대 교... Daum 사칭 ‘카카오와 계정 병합’ 이슈로 위장한... 2022년 3분기 랜섬웨어 키워드: LockBit ... [주말판] 다가오는 사이버 허리케인, 안전 구역은 ... MS 익스체인지 서버의 또 다른 제로데이 취약점 프... GlobeImposter 국내 유포... 2분기 M... [2022년 상반기 보안업계 성적표-2] 출입통제·... PHP 생태계를 위협하는 또 다른 공급망 공격의 가... 새 백도어 매기, 마이크로소프트 SQL 서버들 노리... 바이낸스 브리지, 5억 6600만 달러의 암호화폐 ... 주요 기업별 기사 “ SNS에서도 보안뉴스를 받아보세요!! ” 취약점 경고 및 보안 업데이트 [2022-10-10] Masscan 랜섬웨어, DB... [2022-10-10] 이란 국영방송 해킹! 이란 지... [2022-10-09] IT, 언론 업계 등 타깃으로... [2022-10-08] GlobeImposter 국내... [2022-10-08] Daum 사칭 ‘카카오와 계정... 보안ㆍIT산업 동향 TTA, ‘한국 주도 글로벌 사실표준화기구 ... 안랩, 다양한 행사에 친환경 요소 적극 도입... KISA, 인터넷주소분쟁조정위원회 위원 위촉 파수, 새로워진 ‘랩소디’로 문서중앙화 대체... [2022 국감] 의료기관 내 폭행... 흉... 조회순 추천순 스크랩순 1 [주말판] 다가오는 사이버 허리케인, 안전 ... 2 GlobeImposter 국내 유포... 2... 3 이란 국영방송 해킹! 이란 지도자 과녁 표적... 4 Masscan 랜섬웨어, DB 서버 타깃 무... 5 [2022 국감] 보험사 열 중 아홉, 은행... 1 Masscan 랜섬웨어, DB 서버 타깃 무... 2 랜섬웨어의 발전과 진화에 맞서 IT가 반드시... 3 이란 국영방송 해킹! 이란 지도자 과녁 표적... 4 소비자 기만하는 다크패턴 규제 시작되나 5 [유경동의 IP 인사이트] 장난 아닌 장난감... 1 무선 네트워킹 분야에서 떠오르는 새로운 개념... 2 Daum 사칭 ‘카카오와 계정 병합’ 이슈로... 3 2022년 3분기 랜섬웨어 키워드: Lock... 4 [2022 접근제어 리포트] 계정관리·통합접... 5 대한민국 디지털 전략 속 ‘사이버보안’ 정책... 설문조사 산업 전 분야의 지능화·융합화·스마트화 추세에 따라 스마트시티와 스마트공장, 스마트의료, 스마트상점 등 각 분야에서도 정보보안과 물리보안이 함께 접목되는 융합보안이 이슈가 되고 있습니다. 올해 융합보안이 가장 활발하게 적용될 분야는 어디라고 보시나요? 스마트시티 보안 스마트공장 보안(OT 보안) 스마트의료 보안 스마트상점 보안 기타(댓글로) 클라우드 마비의 이유, 결과 그리고 대책 랜섬웨어의 발전과 진화에 맞서 IT가 반드시 기억해야 ... Masscan 랜섬웨어, DB 서버 타깃 무작위 대입 ... 이란 국영방송 해킹! 이란 지도자 과녁 표적으로 세운 ... 원격근무에 따른 기업 환경의 격변, IT와 보안은 어디... 사이버 범죄자들, 지능화 기법으로 온·오프라인 결제 접... [주말판] 다가오는 사이버 허리케인, 안전 구역은 존재... GlobeImposter 국내 유포... 2분기 MY-... 회사소개| 광고안내| 이용약관| 개인정보 처리방침| 청소년 보호정책| 고객센터| 제휴안내| 관련서적| RSS 서비스| 발행인: 최정식  |  편집인: 최소영  |  청소년보호책임자: 최소영 등록번호 : 서울 아00181 | 등록연월일 : 2006년 3월 17일 | 상호 : (주)더비엔 | 사업자등록번호 : 407-86-00506 | 대표 : 최정식 주소 : 서울시 마포구 마포대로 25 (마포동, 신한디엠빌딩 13층) (우. 04167) | 전화 : 02-719-6933 | 팩스 : 02-715-8245 | E-mail : helpdesk@boannews.com 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 권 준(editor@boannews.com) Copyright ⓒ thebn Co., Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N1 이전 다음 제주도 생태관광 시범인증 대상 모집…지역·프로그램·숙박 등 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정치 제주도 생태관광 시범인증 대상 모집…지역·프로그램·숙박 등 이정민 기자 승인 2021.08.01 09:44 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 도청 청사. [제주특별자치도] [미디어제주 이정민 기자] 제주특별자치도는 제주생태관광인증제 시행에 앞서 오는 17일부터 다음달 17일까지 시범인증 대상을 모집한다고 1일 밝혔다. 시범인증 대상은 생태관광지역, 생태관광 프로그램, 생태관광 관련 숙박시설 등 3개 분야다. 생태관광지역은 ▲자연관광 또는 생태관광 대상 장소 및 장소를 대표하는 특정 시설물 ▲농어촌마을이나 관광목적의 자연지역 ▲방문자센터나 탐조시설 ▲탐방로 ▲체험센터 등이다. 프로그램은 여행업으로 등록된 기업이나 단체에서 판매하는 여행상품 혹은 마을 등의 단체가 개발해 운영하는 관광상품 등이며, 숙박시설은 50객실 이하의 규모로 친환경적 숙박을 위해 고안된 시설·호텔·콘도미니엄·펜션·민박·캠핑장 등이다. 제주도는 인증심사위원회 평가를 통해 선정된데 대해 생태관광 지도 제작 및 홍보 등을 지원할 계획이다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 이정민 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 도내 관광지에 '녹색제품' 지원 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 도내 관광지에 '녹색제품' 지원 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 도내 관광지에 '녹색제품' 지원 현대성 기자 승인 2021.08.16 14:38 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주녹색구매지원센터(이하 센터)는 '녹색관광지 만들기' 사업에 참여하고 있는 도내 사설관광지 11곳에 녹색제품을 지원했다고 16일 밝혔다. 녹색제품이란 에너지 및 자원의 투입과 온실가스 및 오염 물질의 발생을 최소화하는 제품이다. 제주도와 센터는 도내 생산 녹색제품 보급을 촉진하고, 사설관광지 내 물품의 녹색제품 전환을 유도하기 위해 제품을 지원했다. 제주도는 2016년부터 도내 관광업계와 협력해 '녹색관광지 만들기' 사업을 추진하고 있다. 문경삼 제주도 환경보전국장은 "도민뿐만 아니라 관광객의 녹색관광지 혜택 범위를 넓혀 친환경 소비 확산을 이끌 수 있도록 노력하겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주선수단, 전국체육대회 메달 목표 달성 3제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>한국관광공사, 외국인 대상 ‘집콕 한국 나들이 이벤트’ … 한식진흥원, 대구, 제주도 등 참여 TtL News 티티엘뉴스 Login | Join HOME. 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. News Category 뉴스 카테고리 트렌드 이슈. 산업 | 경제 | 정책. 국내여행 | 레저. 해외여행 | 레저. 엔터테인먼트. 라이프재테크. Home 해외여행 | 레저 전체보기 여행지 테마in여행 골프/레저 맛집/펍 호텔/리조트 축제/쇼핑 여행팁/이벤트 홍콩은 지금 목록 한국관광공사, 외국인 대상 ‘집콕 한국 나들이 이벤트’ … 한식진흥원, 대구, 제주도 등 참여 활발한 협업으로 코로나속 방한마케팅 활기 9월, 제주특별자치도와 함께 한식 주제로 제주오메기떡 등 제주음식과 여행지 함께 홍보하는 집콕 이벤트도 예정 2021-08-10 10:17:30							, 수정 : 2021-08-10 10:35:04							 | 이상인 선임기자 [티티엘뉴스] 한국관광공사 타이베이지사(지사장 이장의)는 재택근무, 휴교령 등으로 집에서 생활하는 시간이 늘어난 대만 소비자들을 대상으로 한국문화를 알리고 포스트코로나 시대에 방한관광을 유도하고자 지자체, 공공기관, 현지 업체 등과 협업한 비대면 마케팅 ‘집콕 한국 나들이 이벤트(이하‘집콕 이벤트’)’를 지난 5월부터 펼치고 있다고 10일 밝혔다. ▲집콕 한국 나들이 이벤트 메인 홍보 이미지 집콕 이벤트는 매회차별로 한식, 한류, 전통공예 등 다양한 주제의 콘텐츠를 제작해 온라인으로 홍보하고, 소비자들로 하여금 한국문화를 간접적으로 체험을 할 수 있도록 체험박스를 제공하는 이벤트다. 각 이벤트에는 한식진흥원, 대구광역시, 제주특별자치도, friDay(대만 OTT업체), 롯데면세점, 정관장 등 유관업체와 기관들의 적극적인 참여 속에 다양한 콘텐츠를 선보이며 대만 소비자들의 관심을 모으고 있다. 특히 대만 MZ세대를 겨냥해 오는 8월 12일부터 개시하는 집콕 이벤트가 눈길을 끈다. 한류를 주제로 한 이 행사엔 대만 3대 OTT(온라인 동영상서비스) 업체 중 하나인 friDay가 참여해 하루 약 6만 5천명 이상이 방문하는 자사 누리집 및 30여 만 명의 팔로워를 보유하고 있는 SNS를 통해 대학로 공연과 최신 한류관광지를 소개하게 된다. ▲집콕 한국 나들이 이벤트(한류편) 소비자 경품 이미지 공사는 홍보영상물에 댓글을 남긴 참가자 중 500명을 선발해 BTS 관련 기념품, K-드라마 스틸컷 및 촬영지 기념엽서, 짜파구리와 한국스낵 등으로 구성된 체험박스를 제공할 예정이다. 이밖에 9월에는 제주특별자치도와 함께 한식을 주제로 제주오메기떡 등 제주음식과 여행지를 함께 홍보하는 집콕 이벤트도 예정돼 있다. 공사 이장의 타이베이지사장은 “총 7차에 걸쳐 진행되는 집콕 이벤트는 1차 한식 밀키트 체험부터 체험박스 제공 인원의 3배가 넘는 참가자가 신청하는 등 대만 소비자들에게 매우 높은 인기를 끌고 있다”며, “이번 이벤트는 기관 및 업체와의 협업을 통한 시너지 효과로 최소 43만여 명의 소비자에게 홍보될 것으로 기대된다” 밝혔다. ● ‘집콕 한국 나들이 이벤트’ 개요 ▶타깃고객 ▷대만지역 일반 소비자 ▶활용테마 ▷한식, ▷한류, ▷쇼핑 등 ▶협업기관 ▷한식진흥원, friDay(대만OTT사), ▷정관장 등 ▶사업시기 ▷ ’21.5-9월 ▶사업내용 ● 이벤트 회차별 제공 박스 구성목록 ○ (1회차) 한식편 - 한식진흥원 ▶한식진흥원 – 한식 밀키트 600개 - 송편, 골동면, 된장찌개, 떡볶이, 김치전, 만두, 닭갈비, 뚝배기불고기, 김치볶음밥, 삼색나무 10종 각 60개 ▶한국관광공사 – 관광100선 지도 600부 ○ (2회차) 전통공예편 – 세종학당 ▶세종학당 – 공예체험키트 200개 - 기와집(18개), 혼례와 의복문화(60개), 음식문화와 공예(61개), 한국미술과 주거문화(61개) ▶한국관광공사 – 태극선, 전통시장 지갑 각 200개 ○ (3회차) 쇼핑관광/방역편 – 정관장 ▶한국관광공사 – 안심키트 800개 - 고려삼정 에브리타임 1포, 홍삼아로니아 1포, 손세정제 1병, 물티슈 1포, 티슈 1포, 티머니 카드 1장 ○ (4회차) 쇼핑관광/전통시장편 - 대구광역시, 롯데면세점 ○ (5회차) 한류편 - friDay(대만 OTT사) ○ (6회차) 쇼핑관광/인삼편 – 정관장 ○ (7회차) 한국미식편 – 제주특별자치도 이상인 선임기자 lagolftime@ttlnews.com 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 관련기사 한국관광공사, 일본 MZ세대 맞춤형 콘텐츠로 한국관광 홍보 한국관광공사 2021년 6월 한국관광통계, 방한외래객 전년 동월대비 108.5% 증가 한국관광공사, 지구환경 보호 위한  ‘불편한 여행’ 캠페인 전개 한국관광공사,  ‘웰컴 K-스테이지’ 개최 문관부·한국관광공사, 무장애 관광지인 열린관광지 중 우수사례 3곳 선정 한국관광공사·국립공원공단, 국립공원 관광활성화 및 안전 탐방 위한 업무협약 체결 문관부·한국관광공사, ‘DMZ 연계관광 시범상품운영 공모전’ 개최 목록 엔터테인먼트 트렌드 이슈 관광항공인&amp;인터뷰 회사소개 ｜ 광고·제휴문의｜ 회원약관｜ 개인정보취급방침｜ 기사제보 | (주)여심 | 서울, 아03649 | 등록일자: 2015년 3월 25일 | 제호: 트래블투라이프(Travel to Lifestyle·티티엘뉴스) | 발행·편집인: 편성희 | 편집장: 정연비 | 청소년보호책임자: 편성희 | 발행일자: 2015년 1월 5일 편집/제작국: 02)6354-4608, ttlnews@ttlnews.com 광고/콘텐츠사업국: 02)6354-4609, ads@ttlnews.com 서울특별시 종로구 세종대로 149 광화문빌딩 20층 HJBC 2134호 티티엘뉴스는 인터넷신문위원회의 기사 및 광고부문 자율규약 준수를 동의한 서약사입니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 정연비 02-6354-4608 ttlnews@ttlnews.com 티티엘뉴스의 모든 콘텐츠는 저작권법의 보호를 받은바, 무단 전재·복사·배포 등을 금합니다. Copyright by TtL news × 유투브 동영상 삽입 가이드 삽입하고자 하는 유투브 동영상의 페이지로 접속하신 후에, 동영상 밑에 있는 '공유' 버튼을 누릅니다. '공유'버튼을 누르면 나오는 탭들 중에 '소스코드'를 선택하시고 해당 소스코드를 복사하신 후 게시판에 붙여넣기 합니다. 닫기 × 뉴스 검색 닫기</t>
@@ -434,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -477,6 +576,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -486,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -529,9 +631,6 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
@@ -541,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,7 +651,224 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
